--- a/刷题公司分类.xlsx
+++ b/刷题公司分类.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="LinkedIn(42)" sheetId="1" r:id="rId1"/>
@@ -14416,7 +14416,7 @@
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -14426,6 +14426,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14443,7 +14461,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -14458,11 +14476,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -16274,6 +16295,206 @@
     </row>
   </sheetData>
   <mergeCells count="210">
+    <mergeCell ref="A121:A123"/>
+    <mergeCell ref="B121:B123"/>
+    <mergeCell ref="D121:D123"/>
+    <mergeCell ref="E121:E123"/>
+    <mergeCell ref="F121:F123"/>
+    <mergeCell ref="A124:A126"/>
+    <mergeCell ref="B124:B126"/>
+    <mergeCell ref="D124:D126"/>
+    <mergeCell ref="E124:E126"/>
+    <mergeCell ref="F124:F126"/>
+    <mergeCell ref="A115:A117"/>
+    <mergeCell ref="B115:B117"/>
+    <mergeCell ref="D115:D117"/>
+    <mergeCell ref="E115:E117"/>
+    <mergeCell ref="F115:F117"/>
+    <mergeCell ref="A118:A120"/>
+    <mergeCell ref="B118:B120"/>
+    <mergeCell ref="D118:D120"/>
+    <mergeCell ref="E118:E120"/>
+    <mergeCell ref="F118:F120"/>
+    <mergeCell ref="A109:A111"/>
+    <mergeCell ref="B109:B111"/>
+    <mergeCell ref="D109:D111"/>
+    <mergeCell ref="E109:E111"/>
+    <mergeCell ref="F109:F111"/>
+    <mergeCell ref="A112:A114"/>
+    <mergeCell ref="B112:B114"/>
+    <mergeCell ref="D112:D114"/>
+    <mergeCell ref="E112:E114"/>
+    <mergeCell ref="F112:F114"/>
+    <mergeCell ref="A103:A105"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="D103:D105"/>
+    <mergeCell ref="E103:E105"/>
+    <mergeCell ref="F103:F105"/>
+    <mergeCell ref="A106:A108"/>
+    <mergeCell ref="B106:B108"/>
+    <mergeCell ref="D106:D108"/>
+    <mergeCell ref="E106:E108"/>
+    <mergeCell ref="F106:F108"/>
+    <mergeCell ref="A97:A99"/>
+    <mergeCell ref="B97:B99"/>
+    <mergeCell ref="D97:D99"/>
+    <mergeCell ref="E97:E99"/>
+    <mergeCell ref="F97:F99"/>
+    <mergeCell ref="A100:A102"/>
+    <mergeCell ref="B100:B102"/>
+    <mergeCell ref="D100:D102"/>
+    <mergeCell ref="E100:E102"/>
+    <mergeCell ref="F100:F102"/>
+    <mergeCell ref="A91:A93"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="D91:D93"/>
+    <mergeCell ref="E91:E93"/>
+    <mergeCell ref="F91:F93"/>
+    <mergeCell ref="A94:A96"/>
+    <mergeCell ref="B94:B96"/>
+    <mergeCell ref="D94:D96"/>
+    <mergeCell ref="E94:E96"/>
+    <mergeCell ref="F94:F96"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="D86:D88"/>
+    <mergeCell ref="E86:E88"/>
+    <mergeCell ref="F86:F88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="A80:A82"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="D80:D82"/>
+    <mergeCell ref="E80:E82"/>
+    <mergeCell ref="F80:F82"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="D83:D85"/>
+    <mergeCell ref="E83:E85"/>
+    <mergeCell ref="F83:F85"/>
+    <mergeCell ref="A74:A76"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="D74:D76"/>
+    <mergeCell ref="E74:E76"/>
+    <mergeCell ref="F74:F76"/>
+    <mergeCell ref="A77:A79"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="D77:D79"/>
+    <mergeCell ref="E77:E79"/>
+    <mergeCell ref="F77:F79"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="E68:E70"/>
+    <mergeCell ref="F68:F70"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="D71:D73"/>
+    <mergeCell ref="E71:E73"/>
+    <mergeCell ref="F71:F73"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="D62:D64"/>
+    <mergeCell ref="E62:E64"/>
+    <mergeCell ref="F62:F64"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="E65:E67"/>
+    <mergeCell ref="F65:F67"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="E56:E58"/>
+    <mergeCell ref="F56:F58"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="F59:F61"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="E50:E52"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="E53:E55"/>
+    <mergeCell ref="F53:F55"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="E47:E49"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="E38:E40"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:F13"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="D2:D4"/>
@@ -16284,206 +16505,6 @@
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="E5:E7"/>
     <mergeCell ref="F5:F7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="F32:F34"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="F35:F37"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="E38:E40"/>
-    <mergeCell ref="F38:F40"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="E41:E43"/>
-    <mergeCell ref="F41:F43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="E47:E49"/>
-    <mergeCell ref="F47:F49"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="E50:E52"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="E53:E55"/>
-    <mergeCell ref="F53:F55"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="D56:D58"/>
-    <mergeCell ref="E56:E58"/>
-    <mergeCell ref="F56:F58"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="E59:E61"/>
-    <mergeCell ref="F59:F61"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="D62:D64"/>
-    <mergeCell ref="E62:E64"/>
-    <mergeCell ref="F62:F64"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="D65:D67"/>
-    <mergeCell ref="E65:E67"/>
-    <mergeCell ref="F65:F67"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="E68:E70"/>
-    <mergeCell ref="F68:F70"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="D71:D73"/>
-    <mergeCell ref="E71:E73"/>
-    <mergeCell ref="F71:F73"/>
-    <mergeCell ref="A74:A76"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="D74:D76"/>
-    <mergeCell ref="E74:E76"/>
-    <mergeCell ref="F74:F76"/>
-    <mergeCell ref="A77:A79"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="D77:D79"/>
-    <mergeCell ref="E77:E79"/>
-    <mergeCell ref="F77:F79"/>
-    <mergeCell ref="A80:A82"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="D80:D82"/>
-    <mergeCell ref="E80:E82"/>
-    <mergeCell ref="F80:F82"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="D83:D85"/>
-    <mergeCell ref="E83:E85"/>
-    <mergeCell ref="F83:F85"/>
-    <mergeCell ref="A86:A88"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="D86:D88"/>
-    <mergeCell ref="E86:E88"/>
-    <mergeCell ref="F86:F88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="A91:A93"/>
-    <mergeCell ref="B91:B93"/>
-    <mergeCell ref="D91:D93"/>
-    <mergeCell ref="E91:E93"/>
-    <mergeCell ref="F91:F93"/>
-    <mergeCell ref="A94:A96"/>
-    <mergeCell ref="B94:B96"/>
-    <mergeCell ref="D94:D96"/>
-    <mergeCell ref="E94:E96"/>
-    <mergeCell ref="F94:F96"/>
-    <mergeCell ref="A97:A99"/>
-    <mergeCell ref="B97:B99"/>
-    <mergeCell ref="D97:D99"/>
-    <mergeCell ref="E97:E99"/>
-    <mergeCell ref="F97:F99"/>
-    <mergeCell ref="A100:A102"/>
-    <mergeCell ref="B100:B102"/>
-    <mergeCell ref="D100:D102"/>
-    <mergeCell ref="E100:E102"/>
-    <mergeCell ref="F100:F102"/>
-    <mergeCell ref="A103:A105"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="D103:D105"/>
-    <mergeCell ref="E103:E105"/>
-    <mergeCell ref="F103:F105"/>
-    <mergeCell ref="A106:A108"/>
-    <mergeCell ref="B106:B108"/>
-    <mergeCell ref="D106:D108"/>
-    <mergeCell ref="E106:E108"/>
-    <mergeCell ref="F106:F108"/>
-    <mergeCell ref="A109:A111"/>
-    <mergeCell ref="B109:B111"/>
-    <mergeCell ref="D109:D111"/>
-    <mergeCell ref="E109:E111"/>
-    <mergeCell ref="F109:F111"/>
-    <mergeCell ref="A112:A114"/>
-    <mergeCell ref="B112:B114"/>
-    <mergeCell ref="D112:D114"/>
-    <mergeCell ref="E112:E114"/>
-    <mergeCell ref="F112:F114"/>
-    <mergeCell ref="A115:A117"/>
-    <mergeCell ref="B115:B117"/>
-    <mergeCell ref="D115:D117"/>
-    <mergeCell ref="E115:E117"/>
-    <mergeCell ref="F115:F117"/>
-    <mergeCell ref="A118:A120"/>
-    <mergeCell ref="B118:B120"/>
-    <mergeCell ref="D118:D120"/>
-    <mergeCell ref="E118:E120"/>
-    <mergeCell ref="F118:F120"/>
-    <mergeCell ref="A121:A123"/>
-    <mergeCell ref="B121:B123"/>
-    <mergeCell ref="D121:D123"/>
-    <mergeCell ref="E121:E123"/>
-    <mergeCell ref="F121:F123"/>
-    <mergeCell ref="A124:A126"/>
-    <mergeCell ref="B124:B126"/>
-    <mergeCell ref="D124:D126"/>
-    <mergeCell ref="E124:E126"/>
-    <mergeCell ref="F124:F126"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
@@ -16581,16 +16602,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
     </row>
@@ -16598,10 +16619,10 @@
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
@@ -19455,6 +19476,396 @@
     </row>
   </sheetData>
   <mergeCells count="404">
+    <mergeCell ref="A235:A237"/>
+    <mergeCell ref="B235:B237"/>
+    <mergeCell ref="D235:D237"/>
+    <mergeCell ref="E235:E237"/>
+    <mergeCell ref="F235:F237"/>
+    <mergeCell ref="A238:A240"/>
+    <mergeCell ref="B238:B240"/>
+    <mergeCell ref="D238:D240"/>
+    <mergeCell ref="E238:E240"/>
+    <mergeCell ref="F238:F240"/>
+    <mergeCell ref="A229:A231"/>
+    <mergeCell ref="B229:B231"/>
+    <mergeCell ref="D229:D231"/>
+    <mergeCell ref="E229:E231"/>
+    <mergeCell ref="F229:F231"/>
+    <mergeCell ref="A232:A234"/>
+    <mergeCell ref="B232:B234"/>
+    <mergeCell ref="D232:D234"/>
+    <mergeCell ref="E232:E234"/>
+    <mergeCell ref="F232:F234"/>
+    <mergeCell ref="A223:A225"/>
+    <mergeCell ref="B223:B225"/>
+    <mergeCell ref="D223:D225"/>
+    <mergeCell ref="E223:E225"/>
+    <mergeCell ref="F223:F225"/>
+    <mergeCell ref="A226:A228"/>
+    <mergeCell ref="B226:B228"/>
+    <mergeCell ref="D226:D228"/>
+    <mergeCell ref="E226:E228"/>
+    <mergeCell ref="F226:F228"/>
+    <mergeCell ref="A217:A219"/>
+    <mergeCell ref="B217:B219"/>
+    <mergeCell ref="D217:D219"/>
+    <mergeCell ref="E217:E219"/>
+    <mergeCell ref="F217:F219"/>
+    <mergeCell ref="A220:A222"/>
+    <mergeCell ref="B220:B222"/>
+    <mergeCell ref="D220:D222"/>
+    <mergeCell ref="E220:E222"/>
+    <mergeCell ref="F220:F222"/>
+    <mergeCell ref="A211:A213"/>
+    <mergeCell ref="B211:B213"/>
+    <mergeCell ref="D211:D213"/>
+    <mergeCell ref="E211:E213"/>
+    <mergeCell ref="F211:F213"/>
+    <mergeCell ref="A214:A216"/>
+    <mergeCell ref="B214:B216"/>
+    <mergeCell ref="D214:D216"/>
+    <mergeCell ref="E214:E216"/>
+    <mergeCell ref="F214:F216"/>
+    <mergeCell ref="A205:A207"/>
+    <mergeCell ref="B205:B207"/>
+    <mergeCell ref="D205:D207"/>
+    <mergeCell ref="E205:E207"/>
+    <mergeCell ref="F205:F207"/>
+    <mergeCell ref="A208:A210"/>
+    <mergeCell ref="B208:B210"/>
+    <mergeCell ref="D208:D210"/>
+    <mergeCell ref="E208:E210"/>
+    <mergeCell ref="F208:F210"/>
+    <mergeCell ref="A199:A201"/>
+    <mergeCell ref="B199:B201"/>
+    <mergeCell ref="D199:D201"/>
+    <mergeCell ref="E199:E201"/>
+    <mergeCell ref="F199:F201"/>
+    <mergeCell ref="A202:A204"/>
+    <mergeCell ref="B202:B204"/>
+    <mergeCell ref="D202:D204"/>
+    <mergeCell ref="E202:E204"/>
+    <mergeCell ref="F202:F204"/>
+    <mergeCell ref="A193:A195"/>
+    <mergeCell ref="B193:B195"/>
+    <mergeCell ref="D193:D195"/>
+    <mergeCell ref="E193:E195"/>
+    <mergeCell ref="F193:F195"/>
+    <mergeCell ref="A196:A198"/>
+    <mergeCell ref="B196:B198"/>
+    <mergeCell ref="D196:D198"/>
+    <mergeCell ref="E196:E198"/>
+    <mergeCell ref="F196:F198"/>
+    <mergeCell ref="A188:A190"/>
+    <mergeCell ref="B188:B190"/>
+    <mergeCell ref="D188:D190"/>
+    <mergeCell ref="E188:E190"/>
+    <mergeCell ref="F188:F190"/>
+    <mergeCell ref="A191:A192"/>
+    <mergeCell ref="B191:B192"/>
+    <mergeCell ref="D191:D192"/>
+    <mergeCell ref="E191:E192"/>
+    <mergeCell ref="F191:F192"/>
+    <mergeCell ref="A182:A184"/>
+    <mergeCell ref="B182:B184"/>
+    <mergeCell ref="D182:D184"/>
+    <mergeCell ref="E182:E184"/>
+    <mergeCell ref="F182:F184"/>
+    <mergeCell ref="A185:A187"/>
+    <mergeCell ref="B185:B187"/>
+    <mergeCell ref="D185:D187"/>
+    <mergeCell ref="E185:E187"/>
+    <mergeCell ref="F185:F187"/>
+    <mergeCell ref="A176:A178"/>
+    <mergeCell ref="B176:B178"/>
+    <mergeCell ref="D176:D178"/>
+    <mergeCell ref="E176:E178"/>
+    <mergeCell ref="F176:F178"/>
+    <mergeCell ref="A179:A181"/>
+    <mergeCell ref="B179:B181"/>
+    <mergeCell ref="D179:D181"/>
+    <mergeCell ref="E179:E181"/>
+    <mergeCell ref="F179:F181"/>
+    <mergeCell ref="A170:A172"/>
+    <mergeCell ref="B170:B172"/>
+    <mergeCell ref="D170:D172"/>
+    <mergeCell ref="E170:E172"/>
+    <mergeCell ref="F170:F172"/>
+    <mergeCell ref="A173:A175"/>
+    <mergeCell ref="B173:B175"/>
+    <mergeCell ref="D173:D175"/>
+    <mergeCell ref="E173:E175"/>
+    <mergeCell ref="F173:F175"/>
+    <mergeCell ref="A164:A166"/>
+    <mergeCell ref="B164:B166"/>
+    <mergeCell ref="D164:D166"/>
+    <mergeCell ref="E164:E166"/>
+    <mergeCell ref="F164:F166"/>
+    <mergeCell ref="A167:A169"/>
+    <mergeCell ref="B167:B169"/>
+    <mergeCell ref="D167:D169"/>
+    <mergeCell ref="E167:E169"/>
+    <mergeCell ref="F167:F169"/>
+    <mergeCell ref="A158:A160"/>
+    <mergeCell ref="B158:B160"/>
+    <mergeCell ref="D158:D160"/>
+    <mergeCell ref="E158:E160"/>
+    <mergeCell ref="F158:F160"/>
+    <mergeCell ref="A161:A163"/>
+    <mergeCell ref="B161:B163"/>
+    <mergeCell ref="D161:D163"/>
+    <mergeCell ref="E161:E163"/>
+    <mergeCell ref="F161:F163"/>
+    <mergeCell ref="A152:A154"/>
+    <mergeCell ref="B152:B154"/>
+    <mergeCell ref="D152:D154"/>
+    <mergeCell ref="E152:E154"/>
+    <mergeCell ref="F152:F154"/>
+    <mergeCell ref="A155:A157"/>
+    <mergeCell ref="B155:B157"/>
+    <mergeCell ref="D155:D157"/>
+    <mergeCell ref="E155:E157"/>
+    <mergeCell ref="F155:F157"/>
+    <mergeCell ref="A146:A148"/>
+    <mergeCell ref="B146:B148"/>
+    <mergeCell ref="D146:D148"/>
+    <mergeCell ref="E146:E148"/>
+    <mergeCell ref="F146:F148"/>
+    <mergeCell ref="A149:A151"/>
+    <mergeCell ref="B149:B151"/>
+    <mergeCell ref="D149:D151"/>
+    <mergeCell ref="E149:E151"/>
+    <mergeCell ref="F149:F151"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="D141:D142"/>
+    <mergeCell ref="E141:E142"/>
+    <mergeCell ref="F141:F142"/>
+    <mergeCell ref="A143:A145"/>
+    <mergeCell ref="B143:B145"/>
+    <mergeCell ref="D143:D145"/>
+    <mergeCell ref="E143:E145"/>
+    <mergeCell ref="F143:F145"/>
+    <mergeCell ref="A135:A137"/>
+    <mergeCell ref="B135:B137"/>
+    <mergeCell ref="D135:D137"/>
+    <mergeCell ref="E135:E137"/>
+    <mergeCell ref="F135:F137"/>
+    <mergeCell ref="A138:A140"/>
+    <mergeCell ref="B138:B140"/>
+    <mergeCell ref="D138:D140"/>
+    <mergeCell ref="E138:E140"/>
+    <mergeCell ref="F138:F140"/>
+    <mergeCell ref="A129:A131"/>
+    <mergeCell ref="B129:B131"/>
+    <mergeCell ref="D129:D131"/>
+    <mergeCell ref="E129:E131"/>
+    <mergeCell ref="F129:F131"/>
+    <mergeCell ref="A132:A134"/>
+    <mergeCell ref="B132:B134"/>
+    <mergeCell ref="D132:D134"/>
+    <mergeCell ref="E132:E134"/>
+    <mergeCell ref="F132:F134"/>
+    <mergeCell ref="A123:A125"/>
+    <mergeCell ref="B123:B125"/>
+    <mergeCell ref="D123:D125"/>
+    <mergeCell ref="E123:E125"/>
+    <mergeCell ref="F123:F125"/>
+    <mergeCell ref="A126:A128"/>
+    <mergeCell ref="B126:B128"/>
+    <mergeCell ref="D126:D128"/>
+    <mergeCell ref="E126:E128"/>
+    <mergeCell ref="F126:F128"/>
+    <mergeCell ref="A117:A119"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="D117:D119"/>
+    <mergeCell ref="E117:E119"/>
+    <mergeCell ref="F117:F119"/>
+    <mergeCell ref="A120:A122"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="D120:D122"/>
+    <mergeCell ref="E120:E122"/>
+    <mergeCell ref="F120:F122"/>
+    <mergeCell ref="A111:A113"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="D111:D113"/>
+    <mergeCell ref="E111:E113"/>
+    <mergeCell ref="F111:F113"/>
+    <mergeCell ref="A114:A116"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="D114:D116"/>
+    <mergeCell ref="E114:E116"/>
+    <mergeCell ref="F114:F116"/>
+    <mergeCell ref="A105:A107"/>
+    <mergeCell ref="B105:B107"/>
+    <mergeCell ref="D105:D107"/>
+    <mergeCell ref="E105:E107"/>
+    <mergeCell ref="F105:F107"/>
+    <mergeCell ref="A108:A110"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="D108:D110"/>
+    <mergeCell ref="E108:E110"/>
+    <mergeCell ref="F108:F110"/>
+    <mergeCell ref="A99:A101"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="D99:D101"/>
+    <mergeCell ref="E99:E101"/>
+    <mergeCell ref="F99:F101"/>
+    <mergeCell ref="A102:A104"/>
+    <mergeCell ref="B102:B104"/>
+    <mergeCell ref="D102:D104"/>
+    <mergeCell ref="E102:E104"/>
+    <mergeCell ref="F102:F104"/>
+    <mergeCell ref="A93:A95"/>
+    <mergeCell ref="B93:B95"/>
+    <mergeCell ref="D93:D95"/>
+    <mergeCell ref="E93:E95"/>
+    <mergeCell ref="F93:F95"/>
+    <mergeCell ref="A96:A98"/>
+    <mergeCell ref="B96:B98"/>
+    <mergeCell ref="D96:D98"/>
+    <mergeCell ref="E96:E98"/>
+    <mergeCell ref="F96:F98"/>
+    <mergeCell ref="A87:A89"/>
+    <mergeCell ref="B87:B89"/>
+    <mergeCell ref="D87:D89"/>
+    <mergeCell ref="E87:E89"/>
+    <mergeCell ref="F87:F89"/>
+    <mergeCell ref="A90:A92"/>
+    <mergeCell ref="B90:B92"/>
+    <mergeCell ref="D90:D92"/>
+    <mergeCell ref="E90:E92"/>
+    <mergeCell ref="F90:F92"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="D81:D83"/>
+    <mergeCell ref="E81:E83"/>
+    <mergeCell ref="F81:F83"/>
+    <mergeCell ref="A84:A86"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="D84:D86"/>
+    <mergeCell ref="E84:E86"/>
+    <mergeCell ref="F84:F86"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="D75:D77"/>
+    <mergeCell ref="E75:E77"/>
+    <mergeCell ref="F75:F77"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="D78:D80"/>
+    <mergeCell ref="E78:E80"/>
+    <mergeCell ref="F78:F80"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="E69:E71"/>
+    <mergeCell ref="F69:F71"/>
+    <mergeCell ref="A72:A74"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="D72:D74"/>
+    <mergeCell ref="E72:E74"/>
+    <mergeCell ref="F72:F74"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="F63:F65"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="D66:D68"/>
+    <mergeCell ref="E66:E68"/>
+    <mergeCell ref="F66:F68"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="F57:F59"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="F54:F56"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="F36:F38"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="F13:F15"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="B7:B9"/>
@@ -19469,396 +19880,6 @@
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="D4:D6"/>
     <mergeCell ref="E4:E6"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="F28:F30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="F48:F50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="F54:F56"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="F57:F59"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="F60:F62"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="E63:E65"/>
-    <mergeCell ref="F63:F65"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="D66:D68"/>
-    <mergeCell ref="E66:E68"/>
-    <mergeCell ref="F66:F68"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="E69:E71"/>
-    <mergeCell ref="F69:F71"/>
-    <mergeCell ref="A72:A74"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="D72:D74"/>
-    <mergeCell ref="E72:E74"/>
-    <mergeCell ref="F72:F74"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="D75:D77"/>
-    <mergeCell ref="E75:E77"/>
-    <mergeCell ref="F75:F77"/>
-    <mergeCell ref="A78:A80"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="D78:D80"/>
-    <mergeCell ref="E78:E80"/>
-    <mergeCell ref="F78:F80"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="D81:D83"/>
-    <mergeCell ref="E81:E83"/>
-    <mergeCell ref="F81:F83"/>
-    <mergeCell ref="A84:A86"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="D84:D86"/>
-    <mergeCell ref="E84:E86"/>
-    <mergeCell ref="F84:F86"/>
-    <mergeCell ref="A87:A89"/>
-    <mergeCell ref="B87:B89"/>
-    <mergeCell ref="D87:D89"/>
-    <mergeCell ref="E87:E89"/>
-    <mergeCell ref="F87:F89"/>
-    <mergeCell ref="A90:A92"/>
-    <mergeCell ref="B90:B92"/>
-    <mergeCell ref="D90:D92"/>
-    <mergeCell ref="E90:E92"/>
-    <mergeCell ref="F90:F92"/>
-    <mergeCell ref="A93:A95"/>
-    <mergeCell ref="B93:B95"/>
-    <mergeCell ref="D93:D95"/>
-    <mergeCell ref="E93:E95"/>
-    <mergeCell ref="F93:F95"/>
-    <mergeCell ref="A96:A98"/>
-    <mergeCell ref="B96:B98"/>
-    <mergeCell ref="D96:D98"/>
-    <mergeCell ref="E96:E98"/>
-    <mergeCell ref="F96:F98"/>
-    <mergeCell ref="A99:A101"/>
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="D99:D101"/>
-    <mergeCell ref="E99:E101"/>
-    <mergeCell ref="F99:F101"/>
-    <mergeCell ref="A102:A104"/>
-    <mergeCell ref="B102:B104"/>
-    <mergeCell ref="D102:D104"/>
-    <mergeCell ref="E102:E104"/>
-    <mergeCell ref="F102:F104"/>
-    <mergeCell ref="A105:A107"/>
-    <mergeCell ref="B105:B107"/>
-    <mergeCell ref="D105:D107"/>
-    <mergeCell ref="E105:E107"/>
-    <mergeCell ref="F105:F107"/>
-    <mergeCell ref="A108:A110"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="D108:D110"/>
-    <mergeCell ref="E108:E110"/>
-    <mergeCell ref="F108:F110"/>
-    <mergeCell ref="A111:A113"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="D111:D113"/>
-    <mergeCell ref="E111:E113"/>
-    <mergeCell ref="F111:F113"/>
-    <mergeCell ref="A114:A116"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="D114:D116"/>
-    <mergeCell ref="E114:E116"/>
-    <mergeCell ref="F114:F116"/>
-    <mergeCell ref="A117:A119"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="D117:D119"/>
-    <mergeCell ref="E117:E119"/>
-    <mergeCell ref="F117:F119"/>
-    <mergeCell ref="A120:A122"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="D120:D122"/>
-    <mergeCell ref="E120:E122"/>
-    <mergeCell ref="F120:F122"/>
-    <mergeCell ref="A123:A125"/>
-    <mergeCell ref="B123:B125"/>
-    <mergeCell ref="D123:D125"/>
-    <mergeCell ref="E123:E125"/>
-    <mergeCell ref="F123:F125"/>
-    <mergeCell ref="A126:A128"/>
-    <mergeCell ref="B126:B128"/>
-    <mergeCell ref="D126:D128"/>
-    <mergeCell ref="E126:E128"/>
-    <mergeCell ref="F126:F128"/>
-    <mergeCell ref="A129:A131"/>
-    <mergeCell ref="B129:B131"/>
-    <mergeCell ref="D129:D131"/>
-    <mergeCell ref="E129:E131"/>
-    <mergeCell ref="F129:F131"/>
-    <mergeCell ref="A132:A134"/>
-    <mergeCell ref="B132:B134"/>
-    <mergeCell ref="D132:D134"/>
-    <mergeCell ref="E132:E134"/>
-    <mergeCell ref="F132:F134"/>
-    <mergeCell ref="A135:A137"/>
-    <mergeCell ref="B135:B137"/>
-    <mergeCell ref="D135:D137"/>
-    <mergeCell ref="E135:E137"/>
-    <mergeCell ref="F135:F137"/>
-    <mergeCell ref="A138:A140"/>
-    <mergeCell ref="B138:B140"/>
-    <mergeCell ref="D138:D140"/>
-    <mergeCell ref="E138:E140"/>
-    <mergeCell ref="F138:F140"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="D141:D142"/>
-    <mergeCell ref="E141:E142"/>
-    <mergeCell ref="F141:F142"/>
-    <mergeCell ref="A143:A145"/>
-    <mergeCell ref="B143:B145"/>
-    <mergeCell ref="D143:D145"/>
-    <mergeCell ref="E143:E145"/>
-    <mergeCell ref="F143:F145"/>
-    <mergeCell ref="A146:A148"/>
-    <mergeCell ref="B146:B148"/>
-    <mergeCell ref="D146:D148"/>
-    <mergeCell ref="E146:E148"/>
-    <mergeCell ref="F146:F148"/>
-    <mergeCell ref="A149:A151"/>
-    <mergeCell ref="B149:B151"/>
-    <mergeCell ref="D149:D151"/>
-    <mergeCell ref="E149:E151"/>
-    <mergeCell ref="F149:F151"/>
-    <mergeCell ref="A152:A154"/>
-    <mergeCell ref="B152:B154"/>
-    <mergeCell ref="D152:D154"/>
-    <mergeCell ref="E152:E154"/>
-    <mergeCell ref="F152:F154"/>
-    <mergeCell ref="A155:A157"/>
-    <mergeCell ref="B155:B157"/>
-    <mergeCell ref="D155:D157"/>
-    <mergeCell ref="E155:E157"/>
-    <mergeCell ref="F155:F157"/>
-    <mergeCell ref="A158:A160"/>
-    <mergeCell ref="B158:B160"/>
-    <mergeCell ref="D158:D160"/>
-    <mergeCell ref="E158:E160"/>
-    <mergeCell ref="F158:F160"/>
-    <mergeCell ref="A161:A163"/>
-    <mergeCell ref="B161:B163"/>
-    <mergeCell ref="D161:D163"/>
-    <mergeCell ref="E161:E163"/>
-    <mergeCell ref="F161:F163"/>
-    <mergeCell ref="A164:A166"/>
-    <mergeCell ref="B164:B166"/>
-    <mergeCell ref="D164:D166"/>
-    <mergeCell ref="E164:E166"/>
-    <mergeCell ref="F164:F166"/>
-    <mergeCell ref="A167:A169"/>
-    <mergeCell ref="B167:B169"/>
-    <mergeCell ref="D167:D169"/>
-    <mergeCell ref="E167:E169"/>
-    <mergeCell ref="F167:F169"/>
-    <mergeCell ref="A170:A172"/>
-    <mergeCell ref="B170:B172"/>
-    <mergeCell ref="D170:D172"/>
-    <mergeCell ref="E170:E172"/>
-    <mergeCell ref="F170:F172"/>
-    <mergeCell ref="A173:A175"/>
-    <mergeCell ref="B173:B175"/>
-    <mergeCell ref="D173:D175"/>
-    <mergeCell ref="E173:E175"/>
-    <mergeCell ref="F173:F175"/>
-    <mergeCell ref="A176:A178"/>
-    <mergeCell ref="B176:B178"/>
-    <mergeCell ref="D176:D178"/>
-    <mergeCell ref="E176:E178"/>
-    <mergeCell ref="F176:F178"/>
-    <mergeCell ref="A179:A181"/>
-    <mergeCell ref="B179:B181"/>
-    <mergeCell ref="D179:D181"/>
-    <mergeCell ref="E179:E181"/>
-    <mergeCell ref="F179:F181"/>
-    <mergeCell ref="A182:A184"/>
-    <mergeCell ref="B182:B184"/>
-    <mergeCell ref="D182:D184"/>
-    <mergeCell ref="E182:E184"/>
-    <mergeCell ref="F182:F184"/>
-    <mergeCell ref="A185:A187"/>
-    <mergeCell ref="B185:B187"/>
-    <mergeCell ref="D185:D187"/>
-    <mergeCell ref="E185:E187"/>
-    <mergeCell ref="F185:F187"/>
-    <mergeCell ref="A188:A190"/>
-    <mergeCell ref="B188:B190"/>
-    <mergeCell ref="D188:D190"/>
-    <mergeCell ref="E188:E190"/>
-    <mergeCell ref="F188:F190"/>
-    <mergeCell ref="A191:A192"/>
-    <mergeCell ref="B191:B192"/>
-    <mergeCell ref="D191:D192"/>
-    <mergeCell ref="E191:E192"/>
-    <mergeCell ref="F191:F192"/>
-    <mergeCell ref="A193:A195"/>
-    <mergeCell ref="B193:B195"/>
-    <mergeCell ref="D193:D195"/>
-    <mergeCell ref="E193:E195"/>
-    <mergeCell ref="F193:F195"/>
-    <mergeCell ref="A196:A198"/>
-    <mergeCell ref="B196:B198"/>
-    <mergeCell ref="D196:D198"/>
-    <mergeCell ref="E196:E198"/>
-    <mergeCell ref="F196:F198"/>
-    <mergeCell ref="A199:A201"/>
-    <mergeCell ref="B199:B201"/>
-    <mergeCell ref="D199:D201"/>
-    <mergeCell ref="E199:E201"/>
-    <mergeCell ref="F199:F201"/>
-    <mergeCell ref="A202:A204"/>
-    <mergeCell ref="B202:B204"/>
-    <mergeCell ref="D202:D204"/>
-    <mergeCell ref="E202:E204"/>
-    <mergeCell ref="F202:F204"/>
-    <mergeCell ref="A205:A207"/>
-    <mergeCell ref="B205:B207"/>
-    <mergeCell ref="D205:D207"/>
-    <mergeCell ref="E205:E207"/>
-    <mergeCell ref="F205:F207"/>
-    <mergeCell ref="A208:A210"/>
-    <mergeCell ref="B208:B210"/>
-    <mergeCell ref="D208:D210"/>
-    <mergeCell ref="E208:E210"/>
-    <mergeCell ref="F208:F210"/>
-    <mergeCell ref="A211:A213"/>
-    <mergeCell ref="B211:B213"/>
-    <mergeCell ref="D211:D213"/>
-    <mergeCell ref="E211:E213"/>
-    <mergeCell ref="F211:F213"/>
-    <mergeCell ref="A214:A216"/>
-    <mergeCell ref="B214:B216"/>
-    <mergeCell ref="D214:D216"/>
-    <mergeCell ref="E214:E216"/>
-    <mergeCell ref="F214:F216"/>
-    <mergeCell ref="A217:A219"/>
-    <mergeCell ref="B217:B219"/>
-    <mergeCell ref="D217:D219"/>
-    <mergeCell ref="E217:E219"/>
-    <mergeCell ref="F217:F219"/>
-    <mergeCell ref="A220:A222"/>
-    <mergeCell ref="B220:B222"/>
-    <mergeCell ref="D220:D222"/>
-    <mergeCell ref="E220:E222"/>
-    <mergeCell ref="F220:F222"/>
-    <mergeCell ref="A223:A225"/>
-    <mergeCell ref="B223:B225"/>
-    <mergeCell ref="D223:D225"/>
-    <mergeCell ref="E223:E225"/>
-    <mergeCell ref="F223:F225"/>
-    <mergeCell ref="A226:A228"/>
-    <mergeCell ref="B226:B228"/>
-    <mergeCell ref="D226:D228"/>
-    <mergeCell ref="E226:E228"/>
-    <mergeCell ref="F226:F228"/>
-    <mergeCell ref="A229:A231"/>
-    <mergeCell ref="B229:B231"/>
-    <mergeCell ref="D229:D231"/>
-    <mergeCell ref="E229:E231"/>
-    <mergeCell ref="F229:F231"/>
-    <mergeCell ref="A232:A234"/>
-    <mergeCell ref="B232:B234"/>
-    <mergeCell ref="D232:D234"/>
-    <mergeCell ref="E232:E234"/>
-    <mergeCell ref="F232:F234"/>
-    <mergeCell ref="A235:A237"/>
-    <mergeCell ref="B235:B237"/>
-    <mergeCell ref="D235:D237"/>
-    <mergeCell ref="E235:E237"/>
-    <mergeCell ref="F235:F237"/>
-    <mergeCell ref="A238:A240"/>
-    <mergeCell ref="B238:B240"/>
-    <mergeCell ref="D238:D240"/>
-    <mergeCell ref="E238:E240"/>
-    <mergeCell ref="F238:F240"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1"/>
@@ -19997,16 +20018,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
     </row>
@@ -20014,10 +20035,10 @@
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
@@ -22063,280 +22084,6 @@
     </row>
   </sheetData>
   <mergeCells count="289">
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="F28:F30"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="F31:F33"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="F34:F36"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="F37:F39"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="E43:E45"/>
-    <mergeCell ref="F43:F45"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="E46:E48"/>
-    <mergeCell ref="F46:F48"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="E49:E51"/>
-    <mergeCell ref="F49:F51"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="E52:E54"/>
-    <mergeCell ref="F52:F54"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="E55:E57"/>
-    <mergeCell ref="F55:F57"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="D58:D60"/>
-    <mergeCell ref="E58:E60"/>
-    <mergeCell ref="F58:F60"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="E61:E63"/>
-    <mergeCell ref="F61:F63"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="D64:D66"/>
-    <mergeCell ref="E64:E66"/>
-    <mergeCell ref="F64:F66"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="E67:E69"/>
-    <mergeCell ref="F67:F69"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="D70:D72"/>
-    <mergeCell ref="E70:E72"/>
-    <mergeCell ref="F70:F72"/>
-    <mergeCell ref="A73:A75"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="E73:E75"/>
-    <mergeCell ref="F73:F75"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="D76:D78"/>
-    <mergeCell ref="E76:E78"/>
-    <mergeCell ref="F76:F78"/>
-    <mergeCell ref="A79:A81"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="D79:D81"/>
-    <mergeCell ref="E79:E81"/>
-    <mergeCell ref="F79:F81"/>
-    <mergeCell ref="A82:A84"/>
-    <mergeCell ref="B82:B84"/>
-    <mergeCell ref="D82:D84"/>
-    <mergeCell ref="E82:E84"/>
-    <mergeCell ref="F82:F84"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="B85:B87"/>
-    <mergeCell ref="D85:D87"/>
-    <mergeCell ref="E85:E87"/>
-    <mergeCell ref="F85:F87"/>
-    <mergeCell ref="A88:A90"/>
-    <mergeCell ref="B88:B90"/>
-    <mergeCell ref="D88:D90"/>
-    <mergeCell ref="E88:E90"/>
-    <mergeCell ref="F88:F90"/>
-    <mergeCell ref="A91:A93"/>
-    <mergeCell ref="B91:B93"/>
-    <mergeCell ref="D91:D93"/>
-    <mergeCell ref="E91:E93"/>
-    <mergeCell ref="F91:F93"/>
-    <mergeCell ref="A94:A96"/>
-    <mergeCell ref="B94:B96"/>
-    <mergeCell ref="D94:D96"/>
-    <mergeCell ref="E94:E96"/>
-    <mergeCell ref="F94:F96"/>
-    <mergeCell ref="A97:A99"/>
-    <mergeCell ref="B97:B99"/>
-    <mergeCell ref="D97:D99"/>
-    <mergeCell ref="E97:E99"/>
-    <mergeCell ref="F97:F99"/>
-    <mergeCell ref="A100:A102"/>
-    <mergeCell ref="B100:B102"/>
-    <mergeCell ref="D100:D102"/>
-    <mergeCell ref="E100:E102"/>
-    <mergeCell ref="F100:F102"/>
-    <mergeCell ref="A103:A105"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="D103:D105"/>
-    <mergeCell ref="E103:E105"/>
-    <mergeCell ref="F103:F105"/>
-    <mergeCell ref="A106:A108"/>
-    <mergeCell ref="B106:B108"/>
-    <mergeCell ref="D106:D108"/>
-    <mergeCell ref="E106:E108"/>
-    <mergeCell ref="F106:F108"/>
-    <mergeCell ref="A109:A111"/>
-    <mergeCell ref="B109:B111"/>
-    <mergeCell ref="D109:D111"/>
-    <mergeCell ref="E109:E111"/>
-    <mergeCell ref="F109:F111"/>
-    <mergeCell ref="A112:A114"/>
-    <mergeCell ref="B112:B114"/>
-    <mergeCell ref="D112:D114"/>
-    <mergeCell ref="E112:E114"/>
-    <mergeCell ref="F112:F114"/>
-    <mergeCell ref="A115:A117"/>
-    <mergeCell ref="B115:B117"/>
-    <mergeCell ref="D115:D117"/>
-    <mergeCell ref="E115:E117"/>
-    <mergeCell ref="F115:F117"/>
-    <mergeCell ref="A118:A120"/>
-    <mergeCell ref="B118:B120"/>
-    <mergeCell ref="D118:D120"/>
-    <mergeCell ref="E118:E120"/>
-    <mergeCell ref="F118:F120"/>
-    <mergeCell ref="A121:A123"/>
-    <mergeCell ref="B121:B123"/>
-    <mergeCell ref="D121:D123"/>
-    <mergeCell ref="E121:E123"/>
-    <mergeCell ref="F121:F123"/>
-    <mergeCell ref="A124:A126"/>
-    <mergeCell ref="B124:B126"/>
-    <mergeCell ref="D124:D126"/>
-    <mergeCell ref="E124:E126"/>
-    <mergeCell ref="F124:F126"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="E127:E128"/>
-    <mergeCell ref="F127:F128"/>
-    <mergeCell ref="A129:A131"/>
-    <mergeCell ref="B129:B131"/>
-    <mergeCell ref="D129:D131"/>
-    <mergeCell ref="E129:E131"/>
-    <mergeCell ref="F129:F131"/>
-    <mergeCell ref="A132:A134"/>
-    <mergeCell ref="B132:B134"/>
-    <mergeCell ref="D132:D134"/>
-    <mergeCell ref="E132:E134"/>
-    <mergeCell ref="F132:F134"/>
-    <mergeCell ref="A135:A137"/>
-    <mergeCell ref="B135:B137"/>
-    <mergeCell ref="D135:D137"/>
-    <mergeCell ref="E135:E137"/>
-    <mergeCell ref="F135:F137"/>
-    <mergeCell ref="A138:A140"/>
-    <mergeCell ref="B138:B140"/>
-    <mergeCell ref="D138:D140"/>
-    <mergeCell ref="E138:E140"/>
-    <mergeCell ref="F138:F140"/>
-    <mergeCell ref="A141:A143"/>
-    <mergeCell ref="B141:B143"/>
-    <mergeCell ref="D141:D143"/>
-    <mergeCell ref="E141:E143"/>
-    <mergeCell ref="F141:F143"/>
-    <mergeCell ref="A144:A146"/>
-    <mergeCell ref="B144:B146"/>
-    <mergeCell ref="D144:D146"/>
-    <mergeCell ref="E144:E146"/>
-    <mergeCell ref="F144:F146"/>
-    <mergeCell ref="A147:A149"/>
-    <mergeCell ref="B147:B149"/>
-    <mergeCell ref="D147:D149"/>
-    <mergeCell ref="E147:E149"/>
-    <mergeCell ref="F147:F149"/>
-    <mergeCell ref="A150:A152"/>
-    <mergeCell ref="B150:B152"/>
-    <mergeCell ref="D150:D152"/>
-    <mergeCell ref="E150:E152"/>
-    <mergeCell ref="F150:F152"/>
-    <mergeCell ref="A153:A155"/>
-    <mergeCell ref="B153:B155"/>
-    <mergeCell ref="D153:D155"/>
-    <mergeCell ref="E153:E155"/>
-    <mergeCell ref="F153:F155"/>
-    <mergeCell ref="A156:A158"/>
-    <mergeCell ref="B156:B158"/>
-    <mergeCell ref="D156:D158"/>
-    <mergeCell ref="E156:E158"/>
-    <mergeCell ref="F156:F158"/>
-    <mergeCell ref="A159:A161"/>
-    <mergeCell ref="B159:B161"/>
-    <mergeCell ref="D159:D161"/>
-    <mergeCell ref="E159:E161"/>
-    <mergeCell ref="F159:F161"/>
-    <mergeCell ref="A162:A164"/>
-    <mergeCell ref="B162:B164"/>
-    <mergeCell ref="D162:D164"/>
-    <mergeCell ref="E162:E164"/>
-    <mergeCell ref="F162:F164"/>
     <mergeCell ref="A171:A173"/>
     <mergeCell ref="B171:B173"/>
     <mergeCell ref="D171:D173"/>
@@ -22352,6 +22099,280 @@
     <mergeCell ref="D168:D170"/>
     <mergeCell ref="E168:E170"/>
     <mergeCell ref="F168:F170"/>
+    <mergeCell ref="A159:A161"/>
+    <mergeCell ref="B159:B161"/>
+    <mergeCell ref="D159:D161"/>
+    <mergeCell ref="E159:E161"/>
+    <mergeCell ref="F159:F161"/>
+    <mergeCell ref="A162:A164"/>
+    <mergeCell ref="B162:B164"/>
+    <mergeCell ref="D162:D164"/>
+    <mergeCell ref="E162:E164"/>
+    <mergeCell ref="F162:F164"/>
+    <mergeCell ref="A153:A155"/>
+    <mergeCell ref="B153:B155"/>
+    <mergeCell ref="D153:D155"/>
+    <mergeCell ref="E153:E155"/>
+    <mergeCell ref="F153:F155"/>
+    <mergeCell ref="A156:A158"/>
+    <mergeCell ref="B156:B158"/>
+    <mergeCell ref="D156:D158"/>
+    <mergeCell ref="E156:E158"/>
+    <mergeCell ref="F156:F158"/>
+    <mergeCell ref="A147:A149"/>
+    <mergeCell ref="B147:B149"/>
+    <mergeCell ref="D147:D149"/>
+    <mergeCell ref="E147:E149"/>
+    <mergeCell ref="F147:F149"/>
+    <mergeCell ref="A150:A152"/>
+    <mergeCell ref="B150:B152"/>
+    <mergeCell ref="D150:D152"/>
+    <mergeCell ref="E150:E152"/>
+    <mergeCell ref="F150:F152"/>
+    <mergeCell ref="A141:A143"/>
+    <mergeCell ref="B141:B143"/>
+    <mergeCell ref="D141:D143"/>
+    <mergeCell ref="E141:E143"/>
+    <mergeCell ref="F141:F143"/>
+    <mergeCell ref="A144:A146"/>
+    <mergeCell ref="B144:B146"/>
+    <mergeCell ref="D144:D146"/>
+    <mergeCell ref="E144:E146"/>
+    <mergeCell ref="F144:F146"/>
+    <mergeCell ref="A135:A137"/>
+    <mergeCell ref="B135:B137"/>
+    <mergeCell ref="D135:D137"/>
+    <mergeCell ref="E135:E137"/>
+    <mergeCell ref="F135:F137"/>
+    <mergeCell ref="A138:A140"/>
+    <mergeCell ref="B138:B140"/>
+    <mergeCell ref="D138:D140"/>
+    <mergeCell ref="E138:E140"/>
+    <mergeCell ref="F138:F140"/>
+    <mergeCell ref="A129:A131"/>
+    <mergeCell ref="B129:B131"/>
+    <mergeCell ref="D129:D131"/>
+    <mergeCell ref="E129:E131"/>
+    <mergeCell ref="F129:F131"/>
+    <mergeCell ref="A132:A134"/>
+    <mergeCell ref="B132:B134"/>
+    <mergeCell ref="D132:D134"/>
+    <mergeCell ref="E132:E134"/>
+    <mergeCell ref="F132:F134"/>
+    <mergeCell ref="A124:A126"/>
+    <mergeCell ref="B124:B126"/>
+    <mergeCell ref="D124:D126"/>
+    <mergeCell ref="E124:E126"/>
+    <mergeCell ref="F124:F126"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="E127:E128"/>
+    <mergeCell ref="F127:F128"/>
+    <mergeCell ref="A118:A120"/>
+    <mergeCell ref="B118:B120"/>
+    <mergeCell ref="D118:D120"/>
+    <mergeCell ref="E118:E120"/>
+    <mergeCell ref="F118:F120"/>
+    <mergeCell ref="A121:A123"/>
+    <mergeCell ref="B121:B123"/>
+    <mergeCell ref="D121:D123"/>
+    <mergeCell ref="E121:E123"/>
+    <mergeCell ref="F121:F123"/>
+    <mergeCell ref="A112:A114"/>
+    <mergeCell ref="B112:B114"/>
+    <mergeCell ref="D112:D114"/>
+    <mergeCell ref="E112:E114"/>
+    <mergeCell ref="F112:F114"/>
+    <mergeCell ref="A115:A117"/>
+    <mergeCell ref="B115:B117"/>
+    <mergeCell ref="D115:D117"/>
+    <mergeCell ref="E115:E117"/>
+    <mergeCell ref="F115:F117"/>
+    <mergeCell ref="A106:A108"/>
+    <mergeCell ref="B106:B108"/>
+    <mergeCell ref="D106:D108"/>
+    <mergeCell ref="E106:E108"/>
+    <mergeCell ref="F106:F108"/>
+    <mergeCell ref="A109:A111"/>
+    <mergeCell ref="B109:B111"/>
+    <mergeCell ref="D109:D111"/>
+    <mergeCell ref="E109:E111"/>
+    <mergeCell ref="F109:F111"/>
+    <mergeCell ref="A100:A102"/>
+    <mergeCell ref="B100:B102"/>
+    <mergeCell ref="D100:D102"/>
+    <mergeCell ref="E100:E102"/>
+    <mergeCell ref="F100:F102"/>
+    <mergeCell ref="A103:A105"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="D103:D105"/>
+    <mergeCell ref="E103:E105"/>
+    <mergeCell ref="F103:F105"/>
+    <mergeCell ref="A94:A96"/>
+    <mergeCell ref="B94:B96"/>
+    <mergeCell ref="D94:D96"/>
+    <mergeCell ref="E94:E96"/>
+    <mergeCell ref="F94:F96"/>
+    <mergeCell ref="A97:A99"/>
+    <mergeCell ref="B97:B99"/>
+    <mergeCell ref="D97:D99"/>
+    <mergeCell ref="E97:E99"/>
+    <mergeCell ref="F97:F99"/>
+    <mergeCell ref="A88:A90"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="D88:D90"/>
+    <mergeCell ref="E88:E90"/>
+    <mergeCell ref="F88:F90"/>
+    <mergeCell ref="A91:A93"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="D91:D93"/>
+    <mergeCell ref="E91:E93"/>
+    <mergeCell ref="F91:F93"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="D82:D84"/>
+    <mergeCell ref="E82:E84"/>
+    <mergeCell ref="F82:F84"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="D85:D87"/>
+    <mergeCell ref="E85:E87"/>
+    <mergeCell ref="F85:F87"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="D76:D78"/>
+    <mergeCell ref="E76:E78"/>
+    <mergeCell ref="F76:F78"/>
+    <mergeCell ref="A79:A81"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="D79:D81"/>
+    <mergeCell ref="E79:E81"/>
+    <mergeCell ref="F79:F81"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="E70:E72"/>
+    <mergeCell ref="F70:F72"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="E73:E75"/>
+    <mergeCell ref="F73:F75"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="D64:D66"/>
+    <mergeCell ref="E64:E66"/>
+    <mergeCell ref="F64:F66"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="E67:E69"/>
+    <mergeCell ref="F67:F69"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="E58:E60"/>
+    <mergeCell ref="F58:F60"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="E61:E63"/>
+    <mergeCell ref="F61:F63"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="F52:F54"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="E55:E57"/>
+    <mergeCell ref="F55:F57"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="E46:E48"/>
+    <mergeCell ref="F46:F48"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="E49:E51"/>
+    <mergeCell ref="F49:F51"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="E43:E45"/>
+    <mergeCell ref="F43:F45"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="F34:F36"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="F31:F33"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1"/>
@@ -22444,8 +22465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F347"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B6"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A141" sqref="A141:A143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22454,16 +22475,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
     </row>
@@ -22471,13 +22492,13 @@
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="18"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="11">
         <v>66</v>
       </c>
@@ -22493,7 +22514,7 @@
       <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="18"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="11"/>
       <c r="C5" s="5" t="s">
         <v>208</v>
@@ -22503,7 +22524,7 @@
       <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="18"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="11"/>
       <c r="C6" s="3" t="s">
         <v>209</v>
@@ -22513,7 +22534,7 @@
       <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="18"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="11">
         <v>146</v>
       </c>
@@ -22529,7 +22550,7 @@
       <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="18"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="11"/>
       <c r="C8" s="3" t="s">
         <v>210</v>
@@ -22539,7 +22560,7 @@
       <c r="F8" s="13"/>
     </row>
     <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="18"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="11"/>
       <c r="C9" s="5" t="s">
         <v>211</v>
@@ -22621,7 +22642,7 @@
       <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="11">
         <v>163</v>
       </c>
@@ -22637,7 +22658,7 @@
       <c r="F16" s="13"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="11"/>
       <c r="C17" s="3" t="s">
         <v>43</v>
@@ -22647,7 +22668,7 @@
       <c r="F17" s="13"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="18"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="11"/>
       <c r="C18" s="3" t="s">
         <v>209</v>
@@ -22657,7 +22678,7 @@
       <c r="F18" s="13"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="11">
         <v>228</v>
       </c>
@@ -22673,7 +22694,7 @@
       <c r="F19" s="13"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="11"/>
       <c r="C20" s="3" t="s">
         <v>43</v>
@@ -22683,7 +22704,7 @@
       <c r="F20" s="13"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="11"/>
+      <c r="A21" s="20"/>
       <c r="B21" s="11"/>
       <c r="C21" s="3" t="s">
         <v>209</v>
@@ -22693,7 +22714,7 @@
       <c r="F21" s="13"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="11"/>
+      <c r="A22" s="14"/>
       <c r="B22" s="11">
         <v>279</v>
       </c>
@@ -22709,7 +22730,7 @@
       <c r="F22" s="13"/>
     </row>
     <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A23" s="11"/>
+      <c r="A23" s="14"/>
       <c r="B23" s="11"/>
       <c r="C23" s="5" t="s">
         <v>215</v>
@@ -22719,7 +22740,7 @@
       <c r="F23" s="13"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="11"/>
+      <c r="A24" s="14"/>
       <c r="B24" s="11"/>
       <c r="C24" s="3" t="s">
         <v>209</v>
@@ -22801,7 +22822,7 @@
       <c r="F30" s="13"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="11"/>
+      <c r="A31" s="14"/>
       <c r="B31" s="11">
         <v>56</v>
       </c>
@@ -22817,7 +22838,7 @@
       <c r="F31" s="13"/>
     </row>
     <row r="32" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A32" s="11"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="11"/>
       <c r="C32" s="5" t="s">
         <v>217</v>
@@ -22827,7 +22848,7 @@
       <c r="F32" s="13"/>
     </row>
     <row r="33" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A33" s="11"/>
+      <c r="A33" s="14"/>
       <c r="B33" s="11"/>
       <c r="C33" s="5" t="s">
         <v>218</v>
@@ -22837,7 +22858,7 @@
       <c r="F33" s="13"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="18"/>
+      <c r="A34" s="14"/>
       <c r="B34" s="11">
         <v>20</v>
       </c>
@@ -22853,7 +22874,7 @@
       <c r="F34" s="13"/>
     </row>
     <row r="35" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A35" s="18"/>
+      <c r="A35" s="14"/>
       <c r="B35" s="11"/>
       <c r="C35" s="5" t="s">
         <v>219</v>
@@ -22863,7 +22884,7 @@
       <c r="F35" s="13"/>
     </row>
     <row r="36" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A36" s="18"/>
+      <c r="A36" s="14"/>
       <c r="B36" s="11"/>
       <c r="C36" s="5" t="s">
         <v>220</v>
@@ -23125,7 +23146,7 @@
       <c r="F57" s="13"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="11"/>
+      <c r="A58" s="19"/>
       <c r="B58" s="11">
         <v>10</v>
       </c>
@@ -23141,7 +23162,7 @@
       <c r="F58" s="13"/>
     </row>
     <row r="59" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A59" s="11"/>
+      <c r="A59" s="19"/>
       <c r="B59" s="11"/>
       <c r="C59" s="5" t="s">
         <v>233</v>
@@ -23151,7 +23172,7 @@
       <c r="F59" s="13"/>
     </row>
     <row r="60" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A60" s="11"/>
+      <c r="A60" s="19"/>
       <c r="B60" s="11"/>
       <c r="C60" s="5" t="s">
         <v>234</v>
@@ -23161,7 +23182,7 @@
       <c r="F60" s="13"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="11"/>
+      <c r="A61" s="14"/>
       <c r="B61" s="11">
         <v>281</v>
       </c>
@@ -23177,7 +23198,7 @@
       <c r="F61" s="13"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="11"/>
+      <c r="A62" s="14"/>
       <c r="B62" s="11"/>
       <c r="C62" s="3" t="s">
         <v>210</v>
@@ -23187,7 +23208,7 @@
       <c r="F62" s="13"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="11"/>
+      <c r="A63" s="14"/>
       <c r="B63" s="11"/>
       <c r="C63" s="3" t="s">
         <v>209</v>
@@ -23269,7 +23290,7 @@
       <c r="F69" s="13"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="11"/>
+      <c r="A70" s="14"/>
       <c r="B70" s="11">
         <v>23</v>
       </c>
@@ -23285,7 +23306,7 @@
       <c r="F70" s="13"/>
     </row>
     <row r="71" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A71" s="11"/>
+      <c r="A71" s="14"/>
       <c r="B71" s="11"/>
       <c r="C71" s="5" t="s">
         <v>238</v>
@@ -23295,7 +23316,7 @@
       <c r="F71" s="13"/>
     </row>
     <row r="72" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A72" s="11"/>
+      <c r="A72" s="14"/>
       <c r="B72" s="11"/>
       <c r="C72" s="5" t="s">
         <v>239</v>
@@ -23377,7 +23398,7 @@
       <c r="F78" s="13"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="11"/>
+      <c r="A79" s="21"/>
       <c r="B79" s="11">
         <v>139</v>
       </c>
@@ -23393,7 +23414,7 @@
       <c r="F79" s="13"/>
     </row>
     <row r="80" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A80" s="11"/>
+      <c r="A80" s="21"/>
       <c r="B80" s="11"/>
       <c r="C80" s="5" t="s">
         <v>243</v>
@@ -23439,7 +23460,7 @@
       <c r="F83" s="13"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="11"/>
+      <c r="A84" s="20"/>
       <c r="B84" s="11">
         <v>280</v>
       </c>
@@ -23455,7 +23476,7 @@
       <c r="F84" s="13"/>
     </row>
     <row r="85" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A85" s="11"/>
+      <c r="A85" s="20"/>
       <c r="B85" s="11"/>
       <c r="C85" s="5" t="s">
         <v>217</v>
@@ -23465,7 +23486,7 @@
       <c r="F85" s="13"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="11"/>
+      <c r="A86" s="20"/>
       <c r="B86" s="11"/>
       <c r="C86" s="3" t="s">
         <v>209</v>
@@ -23475,7 +23496,7 @@
       <c r="F86" s="13"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="11"/>
+      <c r="A87" s="20"/>
       <c r="B87" s="11">
         <v>259</v>
       </c>
@@ -23491,7 +23512,7 @@
       <c r="F87" s="13"/>
     </row>
     <row r="88" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A88" s="11"/>
+      <c r="A88" s="20"/>
       <c r="B88" s="11"/>
       <c r="C88" s="5" t="s">
         <v>246</v>
@@ -23501,7 +23522,7 @@
       <c r="F88" s="13"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="11"/>
+      <c r="A89" s="20"/>
       <c r="B89" s="11"/>
       <c r="C89" s="3" t="s">
         <v>209</v>
@@ -23511,7 +23532,7 @@
       <c r="F89" s="13"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="11"/>
+      <c r="A90" s="20"/>
       <c r="B90" s="11">
         <v>284</v>
       </c>
@@ -23527,7 +23548,7 @@
       <c r="F90" s="13"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="11"/>
+      <c r="A91" s="20"/>
       <c r="B91" s="11"/>
       <c r="C91" s="3" t="s">
         <v>210</v>
@@ -23537,7 +23558,7 @@
       <c r="F91" s="13"/>
     </row>
     <row r="92" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A92" s="11"/>
+      <c r="A92" s="20"/>
       <c r="B92" s="11"/>
       <c r="C92" s="5" t="s">
         <v>247</v>
@@ -23727,7 +23748,7 @@
       <c r="F107" s="13"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" s="11"/>
+      <c r="A108" s="20"/>
       <c r="B108" s="11">
         <v>271</v>
       </c>
@@ -23743,7 +23764,7 @@
       <c r="F108" s="13"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" s="11"/>
+      <c r="A109" s="20"/>
       <c r="B109" s="11"/>
       <c r="C109" s="3" t="s">
         <v>28</v>
@@ -23753,7 +23774,7 @@
       <c r="F109" s="13"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" s="11"/>
+      <c r="A110" s="20"/>
       <c r="B110" s="11"/>
       <c r="C110" s="3" t="s">
         <v>209</v>
@@ -23943,7 +23964,7 @@
       <c r="F125" s="13"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A126" s="11"/>
+      <c r="A126" s="14"/>
       <c r="B126" s="11">
         <v>31</v>
       </c>
@@ -23959,7 +23980,7 @@
       <c r="F126" s="13"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A127" s="11"/>
+      <c r="A127" s="14"/>
       <c r="B127" s="11"/>
       <c r="C127" s="3" t="s">
         <v>43</v>
@@ -23969,7 +23990,7 @@
       <c r="F127" s="13"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A128" s="11"/>
+      <c r="A128" s="14"/>
       <c r="B128" s="11"/>
       <c r="C128" s="3" t="s">
         <v>209</v>
@@ -23979,7 +24000,7 @@
       <c r="F128" s="13"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A129" s="11"/>
+      <c r="A129" s="20"/>
       <c r="B129" s="11">
         <v>17</v>
       </c>
@@ -23995,7 +24016,7 @@
       <c r="F129" s="13"/>
     </row>
     <row r="130" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A130" s="11"/>
+      <c r="A130" s="20"/>
       <c r="B130" s="11"/>
       <c r="C130" s="5" t="s">
         <v>263</v>
@@ -24005,7 +24026,7 @@
       <c r="F130" s="13"/>
     </row>
     <row r="131" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A131" s="11"/>
+      <c r="A131" s="20"/>
       <c r="B131" s="11"/>
       <c r="C131" s="5" t="s">
         <v>264</v>
@@ -24123,7 +24144,7 @@
       <c r="F140" s="13"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A141" s="11"/>
+      <c r="A141" s="20"/>
       <c r="B141" s="11">
         <v>22</v>
       </c>
@@ -24139,7 +24160,7 @@
       <c r="F141" s="13"/>
     </row>
     <row r="142" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A142" s="11"/>
+      <c r="A142" s="20"/>
       <c r="B142" s="11"/>
       <c r="C142" s="5" t="s">
         <v>263</v>
@@ -24149,7 +24170,7 @@
       <c r="F142" s="13"/>
     </row>
     <row r="143" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A143" s="11"/>
+      <c r="A143" s="20"/>
       <c r="B143" s="11"/>
       <c r="C143" s="5" t="s">
         <v>269</v>
@@ -24267,7 +24288,7 @@
       <c r="F152" s="13"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A153" s="11"/>
+      <c r="A153" s="20"/>
       <c r="B153" s="11">
         <v>246</v>
       </c>
@@ -24283,7 +24304,7 @@
       <c r="F153" s="13"/>
     </row>
     <row r="154" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A154" s="11"/>
+      <c r="A154" s="20"/>
       <c r="B154" s="11"/>
       <c r="C154" s="5" t="s">
         <v>251</v>
@@ -24293,7 +24314,7 @@
       <c r="F154" s="13"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A155" s="11"/>
+      <c r="A155" s="20"/>
       <c r="B155" s="11"/>
       <c r="C155" s="3" t="s">
         <v>209</v>
@@ -26608,570 +26629,6 @@
     </row>
   </sheetData>
   <mergeCells count="579">
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="F28:F30"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="F31:F33"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="F34:F36"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="F37:F39"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="E43:E45"/>
-    <mergeCell ref="F43:F45"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="E46:E48"/>
-    <mergeCell ref="F46:F48"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="E49:E51"/>
-    <mergeCell ref="F49:F51"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="E52:E54"/>
-    <mergeCell ref="F52:F54"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="E55:E57"/>
-    <mergeCell ref="F55:F57"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="D58:D60"/>
-    <mergeCell ref="E58:E60"/>
-    <mergeCell ref="F58:F60"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="E61:E63"/>
-    <mergeCell ref="F61:F63"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="D64:D66"/>
-    <mergeCell ref="E64:E66"/>
-    <mergeCell ref="F64:F66"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="E67:E69"/>
-    <mergeCell ref="F67:F69"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="D70:D72"/>
-    <mergeCell ref="E70:E72"/>
-    <mergeCell ref="F70:F72"/>
-    <mergeCell ref="A73:A75"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="E73:E75"/>
-    <mergeCell ref="F73:F75"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="D76:D78"/>
-    <mergeCell ref="E76:E78"/>
-    <mergeCell ref="F76:F78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="D81:D83"/>
-    <mergeCell ref="E81:E83"/>
-    <mergeCell ref="F81:F83"/>
-    <mergeCell ref="A84:A86"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="D84:D86"/>
-    <mergeCell ref="E84:E86"/>
-    <mergeCell ref="F84:F86"/>
-    <mergeCell ref="A87:A89"/>
-    <mergeCell ref="B87:B89"/>
-    <mergeCell ref="D87:D89"/>
-    <mergeCell ref="E87:E89"/>
-    <mergeCell ref="F87:F89"/>
-    <mergeCell ref="A90:A92"/>
-    <mergeCell ref="B90:B92"/>
-    <mergeCell ref="D90:D92"/>
-    <mergeCell ref="E90:E92"/>
-    <mergeCell ref="F90:F92"/>
-    <mergeCell ref="A93:A95"/>
-    <mergeCell ref="B93:B95"/>
-    <mergeCell ref="D93:D95"/>
-    <mergeCell ref="E93:E95"/>
-    <mergeCell ref="F93:F95"/>
-    <mergeCell ref="A96:A98"/>
-    <mergeCell ref="B96:B98"/>
-    <mergeCell ref="D96:D98"/>
-    <mergeCell ref="E96:E98"/>
-    <mergeCell ref="F96:F98"/>
-    <mergeCell ref="A99:A101"/>
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="D99:D101"/>
-    <mergeCell ref="E99:E101"/>
-    <mergeCell ref="F99:F101"/>
-    <mergeCell ref="A102:A104"/>
-    <mergeCell ref="B102:B104"/>
-    <mergeCell ref="D102:D104"/>
-    <mergeCell ref="E102:E104"/>
-    <mergeCell ref="F102:F104"/>
-    <mergeCell ref="A105:A107"/>
-    <mergeCell ref="B105:B107"/>
-    <mergeCell ref="D105:D107"/>
-    <mergeCell ref="E105:E107"/>
-    <mergeCell ref="F105:F107"/>
-    <mergeCell ref="A108:A110"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="D108:D110"/>
-    <mergeCell ref="E108:E110"/>
-    <mergeCell ref="F108:F110"/>
-    <mergeCell ref="A111:A113"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="D111:D113"/>
-    <mergeCell ref="E111:E113"/>
-    <mergeCell ref="F111:F113"/>
-    <mergeCell ref="A114:A116"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="D114:D116"/>
-    <mergeCell ref="E114:E116"/>
-    <mergeCell ref="F114:F116"/>
-    <mergeCell ref="A117:A119"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="D117:D119"/>
-    <mergeCell ref="E117:E119"/>
-    <mergeCell ref="F117:F119"/>
-    <mergeCell ref="A120:A122"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="D120:D122"/>
-    <mergeCell ref="E120:E122"/>
-    <mergeCell ref="F120:F122"/>
-    <mergeCell ref="A123:A125"/>
-    <mergeCell ref="B123:B125"/>
-    <mergeCell ref="D123:D125"/>
-    <mergeCell ref="E123:E125"/>
-    <mergeCell ref="F123:F125"/>
-    <mergeCell ref="A126:A128"/>
-    <mergeCell ref="B126:B128"/>
-    <mergeCell ref="D126:D128"/>
-    <mergeCell ref="E126:E128"/>
-    <mergeCell ref="F126:F128"/>
-    <mergeCell ref="A129:A131"/>
-    <mergeCell ref="B129:B131"/>
-    <mergeCell ref="D129:D131"/>
-    <mergeCell ref="E129:E131"/>
-    <mergeCell ref="F129:F131"/>
-    <mergeCell ref="A132:A134"/>
-    <mergeCell ref="B132:B134"/>
-    <mergeCell ref="D132:D134"/>
-    <mergeCell ref="E132:E134"/>
-    <mergeCell ref="F132:F134"/>
-    <mergeCell ref="A135:A137"/>
-    <mergeCell ref="B135:B137"/>
-    <mergeCell ref="D135:D137"/>
-    <mergeCell ref="E135:E137"/>
-    <mergeCell ref="F135:F137"/>
-    <mergeCell ref="A138:A140"/>
-    <mergeCell ref="B138:B140"/>
-    <mergeCell ref="D138:D140"/>
-    <mergeCell ref="E138:E140"/>
-    <mergeCell ref="F138:F140"/>
-    <mergeCell ref="A141:A143"/>
-    <mergeCell ref="B141:B143"/>
-    <mergeCell ref="D141:D143"/>
-    <mergeCell ref="E141:E143"/>
-    <mergeCell ref="F141:F143"/>
-    <mergeCell ref="A144:A146"/>
-    <mergeCell ref="B144:B146"/>
-    <mergeCell ref="D144:D146"/>
-    <mergeCell ref="E144:E146"/>
-    <mergeCell ref="F144:F146"/>
-    <mergeCell ref="A147:A149"/>
-    <mergeCell ref="B147:B149"/>
-    <mergeCell ref="D147:D149"/>
-    <mergeCell ref="E147:E149"/>
-    <mergeCell ref="F147:F149"/>
-    <mergeCell ref="A150:A152"/>
-    <mergeCell ref="B150:B152"/>
-    <mergeCell ref="D150:D152"/>
-    <mergeCell ref="E150:E152"/>
-    <mergeCell ref="F150:F152"/>
-    <mergeCell ref="A153:A155"/>
-    <mergeCell ref="B153:B155"/>
-    <mergeCell ref="D153:D155"/>
-    <mergeCell ref="E153:E155"/>
-    <mergeCell ref="F153:F155"/>
-    <mergeCell ref="A156:A158"/>
-    <mergeCell ref="B156:B158"/>
-    <mergeCell ref="D156:D158"/>
-    <mergeCell ref="E156:E158"/>
-    <mergeCell ref="F156:F158"/>
-    <mergeCell ref="A159:A161"/>
-    <mergeCell ref="B159:B161"/>
-    <mergeCell ref="D159:D161"/>
-    <mergeCell ref="E159:E161"/>
-    <mergeCell ref="F159:F161"/>
-    <mergeCell ref="A162:A164"/>
-    <mergeCell ref="B162:B164"/>
-    <mergeCell ref="D162:D164"/>
-    <mergeCell ref="E162:E164"/>
-    <mergeCell ref="F162:F164"/>
-    <mergeCell ref="A165:A167"/>
-    <mergeCell ref="B165:B167"/>
-    <mergeCell ref="D165:D167"/>
-    <mergeCell ref="E165:E167"/>
-    <mergeCell ref="F165:F167"/>
-    <mergeCell ref="A168:A170"/>
-    <mergeCell ref="B168:B170"/>
-    <mergeCell ref="D168:D170"/>
-    <mergeCell ref="E168:E170"/>
-    <mergeCell ref="F168:F170"/>
-    <mergeCell ref="A171:A173"/>
-    <mergeCell ref="B171:B173"/>
-    <mergeCell ref="D171:D173"/>
-    <mergeCell ref="E171:E173"/>
-    <mergeCell ref="F171:F173"/>
-    <mergeCell ref="A174:A176"/>
-    <mergeCell ref="B174:B176"/>
-    <mergeCell ref="D174:D176"/>
-    <mergeCell ref="E174:E176"/>
-    <mergeCell ref="F174:F176"/>
-    <mergeCell ref="A177:A179"/>
-    <mergeCell ref="B177:B179"/>
-    <mergeCell ref="D177:D179"/>
-    <mergeCell ref="E177:E179"/>
-    <mergeCell ref="F177:F179"/>
-    <mergeCell ref="A180:A182"/>
-    <mergeCell ref="B180:B182"/>
-    <mergeCell ref="D180:D182"/>
-    <mergeCell ref="E180:E182"/>
-    <mergeCell ref="F180:F182"/>
-    <mergeCell ref="A183:A185"/>
-    <mergeCell ref="B183:B185"/>
-    <mergeCell ref="D183:D185"/>
-    <mergeCell ref="E183:E185"/>
-    <mergeCell ref="F183:F185"/>
-    <mergeCell ref="A186:A188"/>
-    <mergeCell ref="B186:B188"/>
-    <mergeCell ref="D186:D188"/>
-    <mergeCell ref="E186:E188"/>
-    <mergeCell ref="F186:F188"/>
-    <mergeCell ref="A189:A191"/>
-    <mergeCell ref="B189:B191"/>
-    <mergeCell ref="D189:D191"/>
-    <mergeCell ref="E189:E191"/>
-    <mergeCell ref="F189:F191"/>
-    <mergeCell ref="A192:A194"/>
-    <mergeCell ref="B192:B194"/>
-    <mergeCell ref="D192:D194"/>
-    <mergeCell ref="E192:E194"/>
-    <mergeCell ref="F192:F194"/>
-    <mergeCell ref="A195:A197"/>
-    <mergeCell ref="B195:B197"/>
-    <mergeCell ref="D195:D197"/>
-    <mergeCell ref="E195:E197"/>
-    <mergeCell ref="F195:F197"/>
-    <mergeCell ref="A198:A200"/>
-    <mergeCell ref="B198:B200"/>
-    <mergeCell ref="D198:D200"/>
-    <mergeCell ref="E198:E200"/>
-    <mergeCell ref="F198:F200"/>
-    <mergeCell ref="A201:A203"/>
-    <mergeCell ref="B201:B203"/>
-    <mergeCell ref="D201:D203"/>
-    <mergeCell ref="E201:E203"/>
-    <mergeCell ref="F201:F203"/>
-    <mergeCell ref="A204:A206"/>
-    <mergeCell ref="B204:B206"/>
-    <mergeCell ref="D204:D206"/>
-    <mergeCell ref="E204:E206"/>
-    <mergeCell ref="F204:F206"/>
-    <mergeCell ref="A207:A209"/>
-    <mergeCell ref="B207:B209"/>
-    <mergeCell ref="D207:D209"/>
-    <mergeCell ref="E207:E209"/>
-    <mergeCell ref="F207:F209"/>
-    <mergeCell ref="A210:A212"/>
-    <mergeCell ref="B210:B212"/>
-    <mergeCell ref="D210:D212"/>
-    <mergeCell ref="E210:E212"/>
-    <mergeCell ref="F210:F212"/>
-    <mergeCell ref="A213:A215"/>
-    <mergeCell ref="B213:B215"/>
-    <mergeCell ref="D213:D215"/>
-    <mergeCell ref="E213:E215"/>
-    <mergeCell ref="F213:F215"/>
-    <mergeCell ref="A216:A218"/>
-    <mergeCell ref="B216:B218"/>
-    <mergeCell ref="D216:D218"/>
-    <mergeCell ref="E216:E218"/>
-    <mergeCell ref="F216:F218"/>
-    <mergeCell ref="A219:A221"/>
-    <mergeCell ref="B219:B221"/>
-    <mergeCell ref="D219:D221"/>
-    <mergeCell ref="E219:E221"/>
-    <mergeCell ref="F219:F221"/>
-    <mergeCell ref="A222:A224"/>
-    <mergeCell ref="B222:B224"/>
-    <mergeCell ref="D222:D224"/>
-    <mergeCell ref="E222:E224"/>
-    <mergeCell ref="F222:F224"/>
-    <mergeCell ref="A225:A227"/>
-    <mergeCell ref="B225:B227"/>
-    <mergeCell ref="D225:D227"/>
-    <mergeCell ref="E225:E227"/>
-    <mergeCell ref="F225:F227"/>
-    <mergeCell ref="A228:A230"/>
-    <mergeCell ref="B228:B230"/>
-    <mergeCell ref="D228:D230"/>
-    <mergeCell ref="E228:E230"/>
-    <mergeCell ref="F228:F230"/>
-    <mergeCell ref="A231:A233"/>
-    <mergeCell ref="B231:B233"/>
-    <mergeCell ref="D231:D233"/>
-    <mergeCell ref="E231:E233"/>
-    <mergeCell ref="F231:F233"/>
-    <mergeCell ref="A234:A236"/>
-    <mergeCell ref="B234:B236"/>
-    <mergeCell ref="D234:D236"/>
-    <mergeCell ref="E234:E236"/>
-    <mergeCell ref="F234:F236"/>
-    <mergeCell ref="A237:A239"/>
-    <mergeCell ref="B237:B239"/>
-    <mergeCell ref="D237:D239"/>
-    <mergeCell ref="E237:E239"/>
-    <mergeCell ref="F237:F239"/>
-    <mergeCell ref="A240:A242"/>
-    <mergeCell ref="B240:B242"/>
-    <mergeCell ref="D240:D242"/>
-    <mergeCell ref="E240:E242"/>
-    <mergeCell ref="F240:F242"/>
-    <mergeCell ref="A243:A245"/>
-    <mergeCell ref="B243:B245"/>
-    <mergeCell ref="D243:D245"/>
-    <mergeCell ref="E243:E245"/>
-    <mergeCell ref="F243:F245"/>
-    <mergeCell ref="A246:A248"/>
-    <mergeCell ref="B246:B248"/>
-    <mergeCell ref="D246:D248"/>
-    <mergeCell ref="E246:E248"/>
-    <mergeCell ref="F246:F248"/>
-    <mergeCell ref="A249:A251"/>
-    <mergeCell ref="B249:B251"/>
-    <mergeCell ref="D249:D251"/>
-    <mergeCell ref="E249:E251"/>
-    <mergeCell ref="F249:F251"/>
-    <mergeCell ref="A252:A254"/>
-    <mergeCell ref="B252:B254"/>
-    <mergeCell ref="D252:D254"/>
-    <mergeCell ref="E252:E254"/>
-    <mergeCell ref="F252:F254"/>
-    <mergeCell ref="A255:A257"/>
-    <mergeCell ref="B255:B257"/>
-    <mergeCell ref="D255:D257"/>
-    <mergeCell ref="E255:E257"/>
-    <mergeCell ref="F255:F257"/>
-    <mergeCell ref="A258:A260"/>
-    <mergeCell ref="B258:B260"/>
-    <mergeCell ref="D258:D260"/>
-    <mergeCell ref="E258:E260"/>
-    <mergeCell ref="F258:F260"/>
-    <mergeCell ref="A261:A263"/>
-    <mergeCell ref="B261:B263"/>
-    <mergeCell ref="D261:D263"/>
-    <mergeCell ref="E261:E263"/>
-    <mergeCell ref="F261:F263"/>
-    <mergeCell ref="A264:A266"/>
-    <mergeCell ref="B264:B266"/>
-    <mergeCell ref="D264:D266"/>
-    <mergeCell ref="E264:E266"/>
-    <mergeCell ref="F264:F266"/>
-    <mergeCell ref="A267:A269"/>
-    <mergeCell ref="B267:B269"/>
-    <mergeCell ref="D267:D269"/>
-    <mergeCell ref="E267:E269"/>
-    <mergeCell ref="F267:F269"/>
-    <mergeCell ref="A270:A272"/>
-    <mergeCell ref="B270:B272"/>
-    <mergeCell ref="D270:D272"/>
-    <mergeCell ref="E270:E272"/>
-    <mergeCell ref="F270:F272"/>
-    <mergeCell ref="A273:A275"/>
-    <mergeCell ref="B273:B275"/>
-    <mergeCell ref="D273:D275"/>
-    <mergeCell ref="E273:E275"/>
-    <mergeCell ref="F273:F275"/>
-    <mergeCell ref="A276:A278"/>
-    <mergeCell ref="B276:B278"/>
-    <mergeCell ref="D276:D278"/>
-    <mergeCell ref="E276:E278"/>
-    <mergeCell ref="F276:F278"/>
-    <mergeCell ref="A279:A281"/>
-    <mergeCell ref="B279:B281"/>
-    <mergeCell ref="D279:D281"/>
-    <mergeCell ref="E279:E281"/>
-    <mergeCell ref="F279:F281"/>
-    <mergeCell ref="A282:A284"/>
-    <mergeCell ref="B282:B284"/>
-    <mergeCell ref="D282:D284"/>
-    <mergeCell ref="E282:E284"/>
-    <mergeCell ref="F282:F284"/>
-    <mergeCell ref="A285:A287"/>
-    <mergeCell ref="B285:B287"/>
-    <mergeCell ref="D285:D287"/>
-    <mergeCell ref="E285:E287"/>
-    <mergeCell ref="F285:F287"/>
-    <mergeCell ref="A288:A290"/>
-    <mergeCell ref="B288:B290"/>
-    <mergeCell ref="D288:D290"/>
-    <mergeCell ref="E288:E290"/>
-    <mergeCell ref="F288:F290"/>
-    <mergeCell ref="A291:A293"/>
-    <mergeCell ref="B291:B293"/>
-    <mergeCell ref="D291:D293"/>
-    <mergeCell ref="E291:E293"/>
-    <mergeCell ref="F291:F293"/>
-    <mergeCell ref="A294:A296"/>
-    <mergeCell ref="B294:B296"/>
-    <mergeCell ref="D294:D296"/>
-    <mergeCell ref="E294:E296"/>
-    <mergeCell ref="F294:F296"/>
-    <mergeCell ref="A297:A299"/>
-    <mergeCell ref="B297:B299"/>
-    <mergeCell ref="D297:D299"/>
-    <mergeCell ref="E297:E299"/>
-    <mergeCell ref="F297:F299"/>
-    <mergeCell ref="A300:A302"/>
-    <mergeCell ref="B300:B302"/>
-    <mergeCell ref="D300:D302"/>
-    <mergeCell ref="E300:E302"/>
-    <mergeCell ref="F300:F302"/>
-    <mergeCell ref="A303:A305"/>
-    <mergeCell ref="B303:B305"/>
-    <mergeCell ref="D303:D305"/>
-    <mergeCell ref="E303:E305"/>
-    <mergeCell ref="F303:F305"/>
-    <mergeCell ref="A306:A308"/>
-    <mergeCell ref="B306:B308"/>
-    <mergeCell ref="D306:D308"/>
-    <mergeCell ref="E306:E308"/>
-    <mergeCell ref="F306:F308"/>
-    <mergeCell ref="A309:A311"/>
-    <mergeCell ref="B309:B311"/>
-    <mergeCell ref="D309:D311"/>
-    <mergeCell ref="E309:E311"/>
-    <mergeCell ref="F309:F311"/>
-    <mergeCell ref="A312:A314"/>
-    <mergeCell ref="B312:B314"/>
-    <mergeCell ref="D312:D314"/>
-    <mergeCell ref="E312:E314"/>
-    <mergeCell ref="F312:F314"/>
-    <mergeCell ref="A315:A317"/>
-    <mergeCell ref="B315:B317"/>
-    <mergeCell ref="D315:D317"/>
-    <mergeCell ref="E315:E317"/>
-    <mergeCell ref="F315:F317"/>
-    <mergeCell ref="A318:A320"/>
-    <mergeCell ref="B318:B320"/>
-    <mergeCell ref="D318:D320"/>
-    <mergeCell ref="E318:E320"/>
-    <mergeCell ref="F318:F320"/>
-    <mergeCell ref="A321:A323"/>
-    <mergeCell ref="B321:B323"/>
-    <mergeCell ref="D321:D323"/>
-    <mergeCell ref="E321:E323"/>
-    <mergeCell ref="F321:F323"/>
-    <mergeCell ref="A324:A326"/>
-    <mergeCell ref="B324:B326"/>
-    <mergeCell ref="D324:D326"/>
-    <mergeCell ref="E324:E326"/>
-    <mergeCell ref="F324:F326"/>
-    <mergeCell ref="A327:A329"/>
-    <mergeCell ref="B327:B329"/>
-    <mergeCell ref="D327:D329"/>
-    <mergeCell ref="E327:E329"/>
-    <mergeCell ref="F327:F329"/>
-    <mergeCell ref="A330:A332"/>
-    <mergeCell ref="B330:B332"/>
-    <mergeCell ref="D330:D332"/>
-    <mergeCell ref="E330:E332"/>
-    <mergeCell ref="F330:F332"/>
-    <mergeCell ref="A333:A335"/>
-    <mergeCell ref="B333:B335"/>
-    <mergeCell ref="D333:D335"/>
-    <mergeCell ref="E333:E335"/>
-    <mergeCell ref="F333:F335"/>
-    <mergeCell ref="A336:A338"/>
-    <mergeCell ref="B336:B338"/>
-    <mergeCell ref="D336:D338"/>
-    <mergeCell ref="E336:E338"/>
-    <mergeCell ref="F336:F338"/>
     <mergeCell ref="A345:A347"/>
     <mergeCell ref="B345:B347"/>
     <mergeCell ref="D345:D347"/>
@@ -27187,6 +26644,570 @@
     <mergeCell ref="D342:D344"/>
     <mergeCell ref="E342:E344"/>
     <mergeCell ref="F342:F344"/>
+    <mergeCell ref="A333:A335"/>
+    <mergeCell ref="B333:B335"/>
+    <mergeCell ref="D333:D335"/>
+    <mergeCell ref="E333:E335"/>
+    <mergeCell ref="F333:F335"/>
+    <mergeCell ref="A336:A338"/>
+    <mergeCell ref="B336:B338"/>
+    <mergeCell ref="D336:D338"/>
+    <mergeCell ref="E336:E338"/>
+    <mergeCell ref="F336:F338"/>
+    <mergeCell ref="A327:A329"/>
+    <mergeCell ref="B327:B329"/>
+    <mergeCell ref="D327:D329"/>
+    <mergeCell ref="E327:E329"/>
+    <mergeCell ref="F327:F329"/>
+    <mergeCell ref="A330:A332"/>
+    <mergeCell ref="B330:B332"/>
+    <mergeCell ref="D330:D332"/>
+    <mergeCell ref="E330:E332"/>
+    <mergeCell ref="F330:F332"/>
+    <mergeCell ref="A321:A323"/>
+    <mergeCell ref="B321:B323"/>
+    <mergeCell ref="D321:D323"/>
+    <mergeCell ref="E321:E323"/>
+    <mergeCell ref="F321:F323"/>
+    <mergeCell ref="A324:A326"/>
+    <mergeCell ref="B324:B326"/>
+    <mergeCell ref="D324:D326"/>
+    <mergeCell ref="E324:E326"/>
+    <mergeCell ref="F324:F326"/>
+    <mergeCell ref="A315:A317"/>
+    <mergeCell ref="B315:B317"/>
+    <mergeCell ref="D315:D317"/>
+    <mergeCell ref="E315:E317"/>
+    <mergeCell ref="F315:F317"/>
+    <mergeCell ref="A318:A320"/>
+    <mergeCell ref="B318:B320"/>
+    <mergeCell ref="D318:D320"/>
+    <mergeCell ref="E318:E320"/>
+    <mergeCell ref="F318:F320"/>
+    <mergeCell ref="A309:A311"/>
+    <mergeCell ref="B309:B311"/>
+    <mergeCell ref="D309:D311"/>
+    <mergeCell ref="E309:E311"/>
+    <mergeCell ref="F309:F311"/>
+    <mergeCell ref="A312:A314"/>
+    <mergeCell ref="B312:B314"/>
+    <mergeCell ref="D312:D314"/>
+    <mergeCell ref="E312:E314"/>
+    <mergeCell ref="F312:F314"/>
+    <mergeCell ref="A303:A305"/>
+    <mergeCell ref="B303:B305"/>
+    <mergeCell ref="D303:D305"/>
+    <mergeCell ref="E303:E305"/>
+    <mergeCell ref="F303:F305"/>
+    <mergeCell ref="A306:A308"/>
+    <mergeCell ref="B306:B308"/>
+    <mergeCell ref="D306:D308"/>
+    <mergeCell ref="E306:E308"/>
+    <mergeCell ref="F306:F308"/>
+    <mergeCell ref="A297:A299"/>
+    <mergeCell ref="B297:B299"/>
+    <mergeCell ref="D297:D299"/>
+    <mergeCell ref="E297:E299"/>
+    <mergeCell ref="F297:F299"/>
+    <mergeCell ref="A300:A302"/>
+    <mergeCell ref="B300:B302"/>
+    <mergeCell ref="D300:D302"/>
+    <mergeCell ref="E300:E302"/>
+    <mergeCell ref="F300:F302"/>
+    <mergeCell ref="A291:A293"/>
+    <mergeCell ref="B291:B293"/>
+    <mergeCell ref="D291:D293"/>
+    <mergeCell ref="E291:E293"/>
+    <mergeCell ref="F291:F293"/>
+    <mergeCell ref="A294:A296"/>
+    <mergeCell ref="B294:B296"/>
+    <mergeCell ref="D294:D296"/>
+    <mergeCell ref="E294:E296"/>
+    <mergeCell ref="F294:F296"/>
+    <mergeCell ref="A285:A287"/>
+    <mergeCell ref="B285:B287"/>
+    <mergeCell ref="D285:D287"/>
+    <mergeCell ref="E285:E287"/>
+    <mergeCell ref="F285:F287"/>
+    <mergeCell ref="A288:A290"/>
+    <mergeCell ref="B288:B290"/>
+    <mergeCell ref="D288:D290"/>
+    <mergeCell ref="E288:E290"/>
+    <mergeCell ref="F288:F290"/>
+    <mergeCell ref="A279:A281"/>
+    <mergeCell ref="B279:B281"/>
+    <mergeCell ref="D279:D281"/>
+    <mergeCell ref="E279:E281"/>
+    <mergeCell ref="F279:F281"/>
+    <mergeCell ref="A282:A284"/>
+    <mergeCell ref="B282:B284"/>
+    <mergeCell ref="D282:D284"/>
+    <mergeCell ref="E282:E284"/>
+    <mergeCell ref="F282:F284"/>
+    <mergeCell ref="A273:A275"/>
+    <mergeCell ref="B273:B275"/>
+    <mergeCell ref="D273:D275"/>
+    <mergeCell ref="E273:E275"/>
+    <mergeCell ref="F273:F275"/>
+    <mergeCell ref="A276:A278"/>
+    <mergeCell ref="B276:B278"/>
+    <mergeCell ref="D276:D278"/>
+    <mergeCell ref="E276:E278"/>
+    <mergeCell ref="F276:F278"/>
+    <mergeCell ref="A267:A269"/>
+    <mergeCell ref="B267:B269"/>
+    <mergeCell ref="D267:D269"/>
+    <mergeCell ref="E267:E269"/>
+    <mergeCell ref="F267:F269"/>
+    <mergeCell ref="A270:A272"/>
+    <mergeCell ref="B270:B272"/>
+    <mergeCell ref="D270:D272"/>
+    <mergeCell ref="E270:E272"/>
+    <mergeCell ref="F270:F272"/>
+    <mergeCell ref="A261:A263"/>
+    <mergeCell ref="B261:B263"/>
+    <mergeCell ref="D261:D263"/>
+    <mergeCell ref="E261:E263"/>
+    <mergeCell ref="F261:F263"/>
+    <mergeCell ref="A264:A266"/>
+    <mergeCell ref="B264:B266"/>
+    <mergeCell ref="D264:D266"/>
+    <mergeCell ref="E264:E266"/>
+    <mergeCell ref="F264:F266"/>
+    <mergeCell ref="A255:A257"/>
+    <mergeCell ref="B255:B257"/>
+    <mergeCell ref="D255:D257"/>
+    <mergeCell ref="E255:E257"/>
+    <mergeCell ref="F255:F257"/>
+    <mergeCell ref="A258:A260"/>
+    <mergeCell ref="B258:B260"/>
+    <mergeCell ref="D258:D260"/>
+    <mergeCell ref="E258:E260"/>
+    <mergeCell ref="F258:F260"/>
+    <mergeCell ref="A249:A251"/>
+    <mergeCell ref="B249:B251"/>
+    <mergeCell ref="D249:D251"/>
+    <mergeCell ref="E249:E251"/>
+    <mergeCell ref="F249:F251"/>
+    <mergeCell ref="A252:A254"/>
+    <mergeCell ref="B252:B254"/>
+    <mergeCell ref="D252:D254"/>
+    <mergeCell ref="E252:E254"/>
+    <mergeCell ref="F252:F254"/>
+    <mergeCell ref="A243:A245"/>
+    <mergeCell ref="B243:B245"/>
+    <mergeCell ref="D243:D245"/>
+    <mergeCell ref="E243:E245"/>
+    <mergeCell ref="F243:F245"/>
+    <mergeCell ref="A246:A248"/>
+    <mergeCell ref="B246:B248"/>
+    <mergeCell ref="D246:D248"/>
+    <mergeCell ref="E246:E248"/>
+    <mergeCell ref="F246:F248"/>
+    <mergeCell ref="A237:A239"/>
+    <mergeCell ref="B237:B239"/>
+    <mergeCell ref="D237:D239"/>
+    <mergeCell ref="E237:E239"/>
+    <mergeCell ref="F237:F239"/>
+    <mergeCell ref="A240:A242"/>
+    <mergeCell ref="B240:B242"/>
+    <mergeCell ref="D240:D242"/>
+    <mergeCell ref="E240:E242"/>
+    <mergeCell ref="F240:F242"/>
+    <mergeCell ref="A231:A233"/>
+    <mergeCell ref="B231:B233"/>
+    <mergeCell ref="D231:D233"/>
+    <mergeCell ref="E231:E233"/>
+    <mergeCell ref="F231:F233"/>
+    <mergeCell ref="A234:A236"/>
+    <mergeCell ref="B234:B236"/>
+    <mergeCell ref="D234:D236"/>
+    <mergeCell ref="E234:E236"/>
+    <mergeCell ref="F234:F236"/>
+    <mergeCell ref="A225:A227"/>
+    <mergeCell ref="B225:B227"/>
+    <mergeCell ref="D225:D227"/>
+    <mergeCell ref="E225:E227"/>
+    <mergeCell ref="F225:F227"/>
+    <mergeCell ref="A228:A230"/>
+    <mergeCell ref="B228:B230"/>
+    <mergeCell ref="D228:D230"/>
+    <mergeCell ref="E228:E230"/>
+    <mergeCell ref="F228:F230"/>
+    <mergeCell ref="A219:A221"/>
+    <mergeCell ref="B219:B221"/>
+    <mergeCell ref="D219:D221"/>
+    <mergeCell ref="E219:E221"/>
+    <mergeCell ref="F219:F221"/>
+    <mergeCell ref="A222:A224"/>
+    <mergeCell ref="B222:B224"/>
+    <mergeCell ref="D222:D224"/>
+    <mergeCell ref="E222:E224"/>
+    <mergeCell ref="F222:F224"/>
+    <mergeCell ref="A213:A215"/>
+    <mergeCell ref="B213:B215"/>
+    <mergeCell ref="D213:D215"/>
+    <mergeCell ref="E213:E215"/>
+    <mergeCell ref="F213:F215"/>
+    <mergeCell ref="A216:A218"/>
+    <mergeCell ref="B216:B218"/>
+    <mergeCell ref="D216:D218"/>
+    <mergeCell ref="E216:E218"/>
+    <mergeCell ref="F216:F218"/>
+    <mergeCell ref="A207:A209"/>
+    <mergeCell ref="B207:B209"/>
+    <mergeCell ref="D207:D209"/>
+    <mergeCell ref="E207:E209"/>
+    <mergeCell ref="F207:F209"/>
+    <mergeCell ref="A210:A212"/>
+    <mergeCell ref="B210:B212"/>
+    <mergeCell ref="D210:D212"/>
+    <mergeCell ref="E210:E212"/>
+    <mergeCell ref="F210:F212"/>
+    <mergeCell ref="A201:A203"/>
+    <mergeCell ref="B201:B203"/>
+    <mergeCell ref="D201:D203"/>
+    <mergeCell ref="E201:E203"/>
+    <mergeCell ref="F201:F203"/>
+    <mergeCell ref="A204:A206"/>
+    <mergeCell ref="B204:B206"/>
+    <mergeCell ref="D204:D206"/>
+    <mergeCell ref="E204:E206"/>
+    <mergeCell ref="F204:F206"/>
+    <mergeCell ref="A195:A197"/>
+    <mergeCell ref="B195:B197"/>
+    <mergeCell ref="D195:D197"/>
+    <mergeCell ref="E195:E197"/>
+    <mergeCell ref="F195:F197"/>
+    <mergeCell ref="A198:A200"/>
+    <mergeCell ref="B198:B200"/>
+    <mergeCell ref="D198:D200"/>
+    <mergeCell ref="E198:E200"/>
+    <mergeCell ref="F198:F200"/>
+    <mergeCell ref="A189:A191"/>
+    <mergeCell ref="B189:B191"/>
+    <mergeCell ref="D189:D191"/>
+    <mergeCell ref="E189:E191"/>
+    <mergeCell ref="F189:F191"/>
+    <mergeCell ref="A192:A194"/>
+    <mergeCell ref="B192:B194"/>
+    <mergeCell ref="D192:D194"/>
+    <mergeCell ref="E192:E194"/>
+    <mergeCell ref="F192:F194"/>
+    <mergeCell ref="A183:A185"/>
+    <mergeCell ref="B183:B185"/>
+    <mergeCell ref="D183:D185"/>
+    <mergeCell ref="E183:E185"/>
+    <mergeCell ref="F183:F185"/>
+    <mergeCell ref="A186:A188"/>
+    <mergeCell ref="B186:B188"/>
+    <mergeCell ref="D186:D188"/>
+    <mergeCell ref="E186:E188"/>
+    <mergeCell ref="F186:F188"/>
+    <mergeCell ref="A177:A179"/>
+    <mergeCell ref="B177:B179"/>
+    <mergeCell ref="D177:D179"/>
+    <mergeCell ref="E177:E179"/>
+    <mergeCell ref="F177:F179"/>
+    <mergeCell ref="A180:A182"/>
+    <mergeCell ref="B180:B182"/>
+    <mergeCell ref="D180:D182"/>
+    <mergeCell ref="E180:E182"/>
+    <mergeCell ref="F180:F182"/>
+    <mergeCell ref="A171:A173"/>
+    <mergeCell ref="B171:B173"/>
+    <mergeCell ref="D171:D173"/>
+    <mergeCell ref="E171:E173"/>
+    <mergeCell ref="F171:F173"/>
+    <mergeCell ref="A174:A176"/>
+    <mergeCell ref="B174:B176"/>
+    <mergeCell ref="D174:D176"/>
+    <mergeCell ref="E174:E176"/>
+    <mergeCell ref="F174:F176"/>
+    <mergeCell ref="A165:A167"/>
+    <mergeCell ref="B165:B167"/>
+    <mergeCell ref="D165:D167"/>
+    <mergeCell ref="E165:E167"/>
+    <mergeCell ref="F165:F167"/>
+    <mergeCell ref="A168:A170"/>
+    <mergeCell ref="B168:B170"/>
+    <mergeCell ref="D168:D170"/>
+    <mergeCell ref="E168:E170"/>
+    <mergeCell ref="F168:F170"/>
+    <mergeCell ref="A159:A161"/>
+    <mergeCell ref="B159:B161"/>
+    <mergeCell ref="D159:D161"/>
+    <mergeCell ref="E159:E161"/>
+    <mergeCell ref="F159:F161"/>
+    <mergeCell ref="A162:A164"/>
+    <mergeCell ref="B162:B164"/>
+    <mergeCell ref="D162:D164"/>
+    <mergeCell ref="E162:E164"/>
+    <mergeCell ref="F162:F164"/>
+    <mergeCell ref="A153:A155"/>
+    <mergeCell ref="B153:B155"/>
+    <mergeCell ref="D153:D155"/>
+    <mergeCell ref="E153:E155"/>
+    <mergeCell ref="F153:F155"/>
+    <mergeCell ref="A156:A158"/>
+    <mergeCell ref="B156:B158"/>
+    <mergeCell ref="D156:D158"/>
+    <mergeCell ref="E156:E158"/>
+    <mergeCell ref="F156:F158"/>
+    <mergeCell ref="A147:A149"/>
+    <mergeCell ref="B147:B149"/>
+    <mergeCell ref="D147:D149"/>
+    <mergeCell ref="E147:E149"/>
+    <mergeCell ref="F147:F149"/>
+    <mergeCell ref="A150:A152"/>
+    <mergeCell ref="B150:B152"/>
+    <mergeCell ref="D150:D152"/>
+    <mergeCell ref="E150:E152"/>
+    <mergeCell ref="F150:F152"/>
+    <mergeCell ref="A141:A143"/>
+    <mergeCell ref="B141:B143"/>
+    <mergeCell ref="D141:D143"/>
+    <mergeCell ref="E141:E143"/>
+    <mergeCell ref="F141:F143"/>
+    <mergeCell ref="A144:A146"/>
+    <mergeCell ref="B144:B146"/>
+    <mergeCell ref="D144:D146"/>
+    <mergeCell ref="E144:E146"/>
+    <mergeCell ref="F144:F146"/>
+    <mergeCell ref="A135:A137"/>
+    <mergeCell ref="B135:B137"/>
+    <mergeCell ref="D135:D137"/>
+    <mergeCell ref="E135:E137"/>
+    <mergeCell ref="F135:F137"/>
+    <mergeCell ref="A138:A140"/>
+    <mergeCell ref="B138:B140"/>
+    <mergeCell ref="D138:D140"/>
+    <mergeCell ref="E138:E140"/>
+    <mergeCell ref="F138:F140"/>
+    <mergeCell ref="A129:A131"/>
+    <mergeCell ref="B129:B131"/>
+    <mergeCell ref="D129:D131"/>
+    <mergeCell ref="E129:E131"/>
+    <mergeCell ref="F129:F131"/>
+    <mergeCell ref="A132:A134"/>
+    <mergeCell ref="B132:B134"/>
+    <mergeCell ref="D132:D134"/>
+    <mergeCell ref="E132:E134"/>
+    <mergeCell ref="F132:F134"/>
+    <mergeCell ref="A123:A125"/>
+    <mergeCell ref="B123:B125"/>
+    <mergeCell ref="D123:D125"/>
+    <mergeCell ref="E123:E125"/>
+    <mergeCell ref="F123:F125"/>
+    <mergeCell ref="A126:A128"/>
+    <mergeCell ref="B126:B128"/>
+    <mergeCell ref="D126:D128"/>
+    <mergeCell ref="E126:E128"/>
+    <mergeCell ref="F126:F128"/>
+    <mergeCell ref="A117:A119"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="D117:D119"/>
+    <mergeCell ref="E117:E119"/>
+    <mergeCell ref="F117:F119"/>
+    <mergeCell ref="A120:A122"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="D120:D122"/>
+    <mergeCell ref="E120:E122"/>
+    <mergeCell ref="F120:F122"/>
+    <mergeCell ref="A111:A113"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="D111:D113"/>
+    <mergeCell ref="E111:E113"/>
+    <mergeCell ref="F111:F113"/>
+    <mergeCell ref="A114:A116"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="D114:D116"/>
+    <mergeCell ref="E114:E116"/>
+    <mergeCell ref="F114:F116"/>
+    <mergeCell ref="A105:A107"/>
+    <mergeCell ref="B105:B107"/>
+    <mergeCell ref="D105:D107"/>
+    <mergeCell ref="E105:E107"/>
+    <mergeCell ref="F105:F107"/>
+    <mergeCell ref="A108:A110"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="D108:D110"/>
+    <mergeCell ref="E108:E110"/>
+    <mergeCell ref="F108:F110"/>
+    <mergeCell ref="A99:A101"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="D99:D101"/>
+    <mergeCell ref="E99:E101"/>
+    <mergeCell ref="F99:F101"/>
+    <mergeCell ref="A102:A104"/>
+    <mergeCell ref="B102:B104"/>
+    <mergeCell ref="D102:D104"/>
+    <mergeCell ref="E102:E104"/>
+    <mergeCell ref="F102:F104"/>
+    <mergeCell ref="A93:A95"/>
+    <mergeCell ref="B93:B95"/>
+    <mergeCell ref="D93:D95"/>
+    <mergeCell ref="E93:E95"/>
+    <mergeCell ref="F93:F95"/>
+    <mergeCell ref="A96:A98"/>
+    <mergeCell ref="B96:B98"/>
+    <mergeCell ref="D96:D98"/>
+    <mergeCell ref="E96:E98"/>
+    <mergeCell ref="F96:F98"/>
+    <mergeCell ref="A87:A89"/>
+    <mergeCell ref="B87:B89"/>
+    <mergeCell ref="D87:D89"/>
+    <mergeCell ref="E87:E89"/>
+    <mergeCell ref="F87:F89"/>
+    <mergeCell ref="A90:A92"/>
+    <mergeCell ref="B90:B92"/>
+    <mergeCell ref="D90:D92"/>
+    <mergeCell ref="E90:E92"/>
+    <mergeCell ref="F90:F92"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="D81:D83"/>
+    <mergeCell ref="E81:E83"/>
+    <mergeCell ref="F81:F83"/>
+    <mergeCell ref="A84:A86"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="D84:D86"/>
+    <mergeCell ref="E84:E86"/>
+    <mergeCell ref="F84:F86"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="D76:D78"/>
+    <mergeCell ref="E76:E78"/>
+    <mergeCell ref="F76:F78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="E70:E72"/>
+    <mergeCell ref="F70:F72"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="E73:E75"/>
+    <mergeCell ref="F73:F75"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="D64:D66"/>
+    <mergeCell ref="E64:E66"/>
+    <mergeCell ref="F64:F66"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="E67:E69"/>
+    <mergeCell ref="F67:F69"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="E58:E60"/>
+    <mergeCell ref="F58:F60"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="E61:E63"/>
+    <mergeCell ref="F61:F63"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="F52:F54"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="E55:E57"/>
+    <mergeCell ref="F55:F57"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="E46:E48"/>
+    <mergeCell ref="F46:F48"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="E49:E51"/>
+    <mergeCell ref="F49:F51"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="E43:E45"/>
+    <mergeCell ref="F43:F45"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="F34:F36"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="F31:F33"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1"/>
@@ -27414,7 +27435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A62" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -27424,16 +27445,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
     </row>
@@ -27441,10 +27462,10 @@
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
@@ -28384,6 +28405,126 @@
     </row>
   </sheetData>
   <mergeCells count="134">
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="D76:D78"/>
+    <mergeCell ref="E76:E78"/>
+    <mergeCell ref="F76:F78"/>
+    <mergeCell ref="A79:A81"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="D79:D81"/>
+    <mergeCell ref="E79:E81"/>
+    <mergeCell ref="F79:F81"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="E70:E72"/>
+    <mergeCell ref="F70:F72"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="E73:E75"/>
+    <mergeCell ref="F73:F75"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="D64:D66"/>
+    <mergeCell ref="E64:E66"/>
+    <mergeCell ref="F64:F66"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="E67:E69"/>
+    <mergeCell ref="F67:F69"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="E58:E60"/>
+    <mergeCell ref="F58:F60"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="E61:E63"/>
+    <mergeCell ref="F61:F63"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="F52:F54"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="E55:E57"/>
+    <mergeCell ref="F55:F57"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="E46:E48"/>
+    <mergeCell ref="F46:F48"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="E49:E51"/>
+    <mergeCell ref="F49:F51"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="E43:E45"/>
+    <mergeCell ref="F43:F45"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="F34:F36"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="F31:F33"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="F13:F15"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="B7:B9"/>
@@ -28398,126 +28539,6 @@
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="D4:D6"/>
     <mergeCell ref="E4:E6"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="F28:F30"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="F31:F33"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="F34:F36"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="F37:F39"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="E43:E45"/>
-    <mergeCell ref="F43:F45"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="E46:E48"/>
-    <mergeCell ref="F46:F48"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="E49:E51"/>
-    <mergeCell ref="F49:F51"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="E52:E54"/>
-    <mergeCell ref="F52:F54"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="E55:E57"/>
-    <mergeCell ref="F55:F57"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="D58:D60"/>
-    <mergeCell ref="E58:E60"/>
-    <mergeCell ref="F58:F60"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="E61:E63"/>
-    <mergeCell ref="F61:F63"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="D64:D66"/>
-    <mergeCell ref="E64:E66"/>
-    <mergeCell ref="F64:F66"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="E67:E69"/>
-    <mergeCell ref="F67:F69"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="D70:D72"/>
-    <mergeCell ref="E70:E72"/>
-    <mergeCell ref="F70:F72"/>
-    <mergeCell ref="A73:A75"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="E73:E75"/>
-    <mergeCell ref="F73:F75"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="D76:D78"/>
-    <mergeCell ref="E76:E78"/>
-    <mergeCell ref="F76:F78"/>
-    <mergeCell ref="A79:A81"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="D79:D81"/>
-    <mergeCell ref="E79:E81"/>
-    <mergeCell ref="F79:F81"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1"/>
@@ -28574,16 +28595,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
     </row>
@@ -28591,10 +28612,10 @@
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
@@ -30126,210 +30147,6 @@
     </row>
   </sheetData>
   <mergeCells count="219">
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="F48:F50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="F54:F56"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="F57:F59"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="F60:F62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="D65:D67"/>
-    <mergeCell ref="E65:E67"/>
-    <mergeCell ref="F65:F67"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="E68:E70"/>
-    <mergeCell ref="F68:F70"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="D71:D73"/>
-    <mergeCell ref="E71:E73"/>
-    <mergeCell ref="F71:F73"/>
-    <mergeCell ref="A74:A76"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="D74:D76"/>
-    <mergeCell ref="E74:E76"/>
-    <mergeCell ref="F74:F76"/>
-    <mergeCell ref="A77:A79"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="D77:D79"/>
-    <mergeCell ref="E77:E79"/>
-    <mergeCell ref="F77:F79"/>
-    <mergeCell ref="A80:A82"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="D80:D82"/>
-    <mergeCell ref="E80:E82"/>
-    <mergeCell ref="F80:F82"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="D83:D85"/>
-    <mergeCell ref="E83:E85"/>
-    <mergeCell ref="F83:F85"/>
-    <mergeCell ref="A86:A88"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="D86:D88"/>
-    <mergeCell ref="E86:E88"/>
-    <mergeCell ref="F86:F88"/>
-    <mergeCell ref="A89:A91"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="D89:D91"/>
-    <mergeCell ref="E89:E91"/>
-    <mergeCell ref="F89:F91"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="D92:D94"/>
-    <mergeCell ref="E92:E94"/>
-    <mergeCell ref="F92:F94"/>
-    <mergeCell ref="A95:A97"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="D95:D97"/>
-    <mergeCell ref="E95:E97"/>
-    <mergeCell ref="F95:F97"/>
-    <mergeCell ref="A98:A100"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="D98:D100"/>
-    <mergeCell ref="E98:E100"/>
-    <mergeCell ref="F98:F100"/>
-    <mergeCell ref="A101:A103"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="D101:D103"/>
-    <mergeCell ref="E101:E103"/>
-    <mergeCell ref="F101:F103"/>
-    <mergeCell ref="A104:A106"/>
-    <mergeCell ref="B104:B106"/>
-    <mergeCell ref="D104:D106"/>
-    <mergeCell ref="E104:E106"/>
-    <mergeCell ref="F104:F106"/>
-    <mergeCell ref="A107:A109"/>
-    <mergeCell ref="B107:B109"/>
-    <mergeCell ref="D107:D109"/>
-    <mergeCell ref="E107:E109"/>
-    <mergeCell ref="F107:F109"/>
-    <mergeCell ref="A110:A112"/>
-    <mergeCell ref="B110:B112"/>
-    <mergeCell ref="D110:D112"/>
-    <mergeCell ref="E110:E112"/>
-    <mergeCell ref="F110:F112"/>
-    <mergeCell ref="A113:A115"/>
-    <mergeCell ref="B113:B115"/>
-    <mergeCell ref="D113:D115"/>
-    <mergeCell ref="E113:E115"/>
-    <mergeCell ref="F113:F115"/>
-    <mergeCell ref="A116:A118"/>
-    <mergeCell ref="B116:B118"/>
-    <mergeCell ref="D116:D118"/>
-    <mergeCell ref="E116:E118"/>
-    <mergeCell ref="F116:F118"/>
-    <mergeCell ref="A119:A121"/>
-    <mergeCell ref="B119:B121"/>
-    <mergeCell ref="D119:D121"/>
-    <mergeCell ref="E119:E121"/>
-    <mergeCell ref="F119:F121"/>
     <mergeCell ref="A128:A130"/>
     <mergeCell ref="B128:B130"/>
     <mergeCell ref="D128:D130"/>
@@ -30345,6 +30162,210 @@
     <mergeCell ref="D125:D127"/>
     <mergeCell ref="E125:E127"/>
     <mergeCell ref="F125:F127"/>
+    <mergeCell ref="A116:A118"/>
+    <mergeCell ref="B116:B118"/>
+    <mergeCell ref="D116:D118"/>
+    <mergeCell ref="E116:E118"/>
+    <mergeCell ref="F116:F118"/>
+    <mergeCell ref="A119:A121"/>
+    <mergeCell ref="B119:B121"/>
+    <mergeCell ref="D119:D121"/>
+    <mergeCell ref="E119:E121"/>
+    <mergeCell ref="F119:F121"/>
+    <mergeCell ref="A110:A112"/>
+    <mergeCell ref="B110:B112"/>
+    <mergeCell ref="D110:D112"/>
+    <mergeCell ref="E110:E112"/>
+    <mergeCell ref="F110:F112"/>
+    <mergeCell ref="A113:A115"/>
+    <mergeCell ref="B113:B115"/>
+    <mergeCell ref="D113:D115"/>
+    <mergeCell ref="E113:E115"/>
+    <mergeCell ref="F113:F115"/>
+    <mergeCell ref="A104:A106"/>
+    <mergeCell ref="B104:B106"/>
+    <mergeCell ref="D104:D106"/>
+    <mergeCell ref="E104:E106"/>
+    <mergeCell ref="F104:F106"/>
+    <mergeCell ref="A107:A109"/>
+    <mergeCell ref="B107:B109"/>
+    <mergeCell ref="D107:D109"/>
+    <mergeCell ref="E107:E109"/>
+    <mergeCell ref="F107:F109"/>
+    <mergeCell ref="A98:A100"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="D98:D100"/>
+    <mergeCell ref="E98:E100"/>
+    <mergeCell ref="F98:F100"/>
+    <mergeCell ref="A101:A103"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="D101:D103"/>
+    <mergeCell ref="E101:E103"/>
+    <mergeCell ref="F101:F103"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="D92:D94"/>
+    <mergeCell ref="E92:E94"/>
+    <mergeCell ref="F92:F94"/>
+    <mergeCell ref="A95:A97"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="D95:D97"/>
+    <mergeCell ref="E95:E97"/>
+    <mergeCell ref="F95:F97"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="D86:D88"/>
+    <mergeCell ref="E86:E88"/>
+    <mergeCell ref="F86:F88"/>
+    <mergeCell ref="A89:A91"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="D89:D91"/>
+    <mergeCell ref="E89:E91"/>
+    <mergeCell ref="F89:F91"/>
+    <mergeCell ref="A80:A82"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="D80:D82"/>
+    <mergeCell ref="E80:E82"/>
+    <mergeCell ref="F80:F82"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="D83:D85"/>
+    <mergeCell ref="E83:E85"/>
+    <mergeCell ref="F83:F85"/>
+    <mergeCell ref="A74:A76"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="D74:D76"/>
+    <mergeCell ref="E74:E76"/>
+    <mergeCell ref="F74:F76"/>
+    <mergeCell ref="A77:A79"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="D77:D79"/>
+    <mergeCell ref="E77:E79"/>
+    <mergeCell ref="F77:F79"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="E68:E70"/>
+    <mergeCell ref="F68:F70"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="D71:D73"/>
+    <mergeCell ref="E71:E73"/>
+    <mergeCell ref="F71:F73"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="E65:E67"/>
+    <mergeCell ref="F65:F67"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="F57:F59"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="F54:F56"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="F36:F38"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1"/>
@@ -30424,16 +30445,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
     </row>
@@ -30441,1577 +30462,1787 @@
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16">
         <v>146</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="17">
         <v>0.158</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="15"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="16"/>
       <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="15"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="16"/>
       <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16">
         <v>139</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="17">
         <v>0.26300000000000001</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="15"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="16"/>
       <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16">
         <v>10</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="17">
         <v>0.22700000000000001</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="13"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="15"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="16"/>
       <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="15"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="16"/>
       <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16">
         <v>297</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="17">
         <v>0.29299999999999998</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F11" s="13"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="15"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="16"/>
       <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="15"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="16"/>
       <c r="F13" s="13"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16">
         <v>54</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="17">
         <v>0.23400000000000001</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="13"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
       <c r="C15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="15"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="16"/>
       <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
       <c r="C16" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="15"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="16"/>
       <c r="F16" s="13"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16">
         <v>36</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="17">
         <v>0.32</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F17" s="13"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
       <c r="C18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="15"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="16"/>
       <c r="F18" s="13"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
       <c r="C19" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="15"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="16"/>
       <c r="F19" s="13"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15">
+      <c r="A20" s="16"/>
+      <c r="B20" s="16">
         <v>49</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="17">
         <v>0.29199999999999998</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F20" s="13"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
       <c r="C21" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="15"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="16"/>
       <c r="F21" s="13"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
       <c r="C22" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="15"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="16"/>
       <c r="F22" s="13"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16">
         <v>17</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="17">
         <v>0.30099999999999999</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F23" s="13"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
       <c r="C24" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="15"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="16"/>
       <c r="F24" s="13"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
       <c r="C25" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="15"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="16"/>
       <c r="F25" s="13"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15">
+      <c r="A26" s="16"/>
+      <c r="B26" s="16">
         <v>262</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D26" s="17">
         <v>0.155</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="E26" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F26" s="13"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
       <c r="C27" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="D27" s="16"/>
-      <c r="E27" s="15"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="16"/>
       <c r="F27" s="13"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15">
+      <c r="A28" s="16"/>
+      <c r="B28" s="16">
         <v>290</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="D28" s="16">
+      <c r="D28" s="17">
         <v>0.30599999999999999</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E28" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F28" s="13"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
       <c r="C29" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="16"/>
-      <c r="E29" s="15"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="16"/>
       <c r="F29" s="13"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
       <c r="C30" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="D30" s="16"/>
-      <c r="E30" s="15"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="16"/>
       <c r="F30" s="13"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15">
+      <c r="A31" s="16"/>
+      <c r="B31" s="16">
         <v>13</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D31" s="17">
         <v>0.41299999999999998</v>
       </c>
-      <c r="E31" s="15" t="s">
+      <c r="E31" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F31" s="13"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
       <c r="C32" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="D32" s="16"/>
-      <c r="E32" s="15"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="16"/>
       <c r="F32" s="13"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
       <c r="C33" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="D33" s="16"/>
-      <c r="E33" s="15"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="16"/>
       <c r="F33" s="13"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15">
+      <c r="A34" s="16"/>
+      <c r="B34" s="16">
         <v>138</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D34" s="17">
         <v>0.26200000000000001</v>
       </c>
-      <c r="E34" s="15" t="s">
+      <c r="E34" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F34" s="13"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
       <c r="C35" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="D35" s="16"/>
-      <c r="E35" s="15"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="16"/>
       <c r="F35" s="13"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
       <c r="C36" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="D36" s="16"/>
-      <c r="E36" s="15"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="16"/>
       <c r="F36" s="13"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="15"/>
-      <c r="B37" s="15">
+      <c r="A37" s="16"/>
+      <c r="B37" s="16">
         <v>1</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D37" s="16">
+      <c r="D37" s="17">
         <v>0.255</v>
       </c>
-      <c r="E37" s="15" t="s">
+      <c r="E37" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F37" s="13"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="15"/>
-      <c r="B38" s="15"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
       <c r="C38" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="D38" s="16"/>
-      <c r="E38" s="15"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="16"/>
       <c r="F38" s="13"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="15"/>
-      <c r="B39" s="15"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
       <c r="C39" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="D39" s="16"/>
-      <c r="E39" s="15"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="16"/>
       <c r="F39" s="13"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="15"/>
-      <c r="B40" s="15">
+      <c r="A40" s="16"/>
+      <c r="B40" s="16">
         <v>39</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="D40" s="16">
+      <c r="D40" s="17">
         <v>0.32800000000000001</v>
       </c>
-      <c r="E40" s="15" t="s">
+      <c r="E40" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F40" s="13"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="15"/>
-      <c r="B41" s="15"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
       <c r="C41" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="D41" s="16"/>
-      <c r="E41" s="15"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="16"/>
       <c r="F41" s="13"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="15"/>
-      <c r="B42" s="15"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
       <c r="C42" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="D42" s="16"/>
-      <c r="E42" s="15"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="16"/>
       <c r="F42" s="13"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="15"/>
-      <c r="B43" s="15">
+      <c r="A43" s="16"/>
+      <c r="B43" s="16">
         <v>291</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="D43" s="16">
+      <c r="D43" s="17">
         <v>0.36099999999999999</v>
       </c>
-      <c r="E43" s="15" t="s">
+      <c r="E43" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F43" s="13"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="15"/>
-      <c r="B44" s="15"/>
+      <c r="A44" s="16"/>
+      <c r="B44" s="16"/>
       <c r="C44" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D44" s="16"/>
-      <c r="E44" s="15"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="16"/>
       <c r="F44" s="13"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="15"/>
-      <c r="B45" s="15"/>
+      <c r="A45" s="16"/>
+      <c r="B45" s="16"/>
       <c r="C45" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="D45" s="16"/>
-      <c r="E45" s="15"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="16"/>
       <c r="F45" s="13"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="15"/>
-      <c r="B46" s="15">
+      <c r="A46" s="16"/>
+      <c r="B46" s="16">
         <v>22</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D46" s="16">
+      <c r="D46" s="17">
         <v>0.38900000000000001</v>
       </c>
-      <c r="E46" s="15" t="s">
+      <c r="E46" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F46" s="13"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="15"/>
-      <c r="B47" s="15"/>
+      <c r="A47" s="16"/>
+      <c r="B47" s="16"/>
       <c r="C47" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="D47" s="16"/>
-      <c r="E47" s="15"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="16"/>
       <c r="F47" s="13"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="15"/>
-      <c r="B48" s="15"/>
+      <c r="A48" s="16"/>
+      <c r="B48" s="16"/>
       <c r="C48" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="D48" s="16"/>
-      <c r="E48" s="15"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="16"/>
       <c r="F48" s="13"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="15"/>
-      <c r="B49" s="15">
+      <c r="A49" s="16"/>
+      <c r="B49" s="16">
         <v>24</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="D49" s="16">
+      <c r="D49" s="17">
         <v>0.36099999999999999</v>
       </c>
-      <c r="E49" s="15" t="s">
+      <c r="E49" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F49" s="13"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="15"/>
-      <c r="B50" s="15"/>
+      <c r="A50" s="16"/>
+      <c r="B50" s="16"/>
       <c r="C50" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D50" s="16"/>
-      <c r="E50" s="15"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="16"/>
       <c r="F50" s="13"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="15"/>
-      <c r="B51" s="15"/>
+      <c r="A51" s="16"/>
+      <c r="B51" s="16"/>
       <c r="C51" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="D51" s="16"/>
-      <c r="E51" s="15"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="16"/>
       <c r="F51" s="13"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="15"/>
-      <c r="B52" s="15">
+      <c r="A52" s="16"/>
+      <c r="B52" s="16">
         <v>208</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D52" s="16">
+      <c r="D52" s="17">
         <v>0.255</v>
       </c>
-      <c r="E52" s="15" t="s">
+      <c r="E52" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F52" s="13"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="15"/>
-      <c r="B53" s="15"/>
+      <c r="A53" s="16"/>
+      <c r="B53" s="16"/>
       <c r="C53" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="D53" s="16"/>
-      <c r="E53" s="15"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="16"/>
       <c r="F53" s="13"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="15"/>
-      <c r="B54" s="15"/>
+      <c r="A54" s="16"/>
+      <c r="B54" s="16"/>
       <c r="C54" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="D54" s="16"/>
-      <c r="E54" s="15"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="16"/>
       <c r="F54" s="13"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="15"/>
-      <c r="B55" s="15">
+      <c r="A55" s="16"/>
+      <c r="B55" s="16">
         <v>254</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D55" s="16">
+      <c r="D55" s="17">
         <v>0.36799999999999999</v>
       </c>
-      <c r="E55" s="15" t="s">
+      <c r="E55" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F55" s="13"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="15"/>
-      <c r="B56" s="15"/>
+      <c r="A56" s="16"/>
+      <c r="B56" s="16"/>
       <c r="C56" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D56" s="16"/>
-      <c r="E56" s="15"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="16"/>
       <c r="F56" s="13"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="15"/>
-      <c r="B57" s="15"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="16"/>
       <c r="C57" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="D57" s="16"/>
-      <c r="E57" s="15"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="16"/>
       <c r="F57" s="13"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="15"/>
-      <c r="B58" s="15">
+      <c r="A58" s="16"/>
+      <c r="B58" s="16">
         <v>133</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D58" s="16">
+      <c r="D58" s="17">
         <v>0.249</v>
       </c>
-      <c r="E58" s="15" t="s">
+      <c r="E58" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F58" s="13"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="15"/>
-      <c r="B59" s="15"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="16"/>
       <c r="C59" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="D59" s="16"/>
-      <c r="E59" s="15"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="16"/>
       <c r="F59" s="13"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="15"/>
-      <c r="B60" s="15"/>
+      <c r="A60" s="16"/>
+      <c r="B60" s="16"/>
       <c r="C60" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="D60" s="16"/>
-      <c r="E60" s="15"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="16"/>
       <c r="F60" s="13"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="15"/>
-      <c r="B61" s="15">
+      <c r="A61" s="16"/>
+      <c r="B61" s="16">
         <v>91</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="D61" s="16">
+      <c r="D61" s="17">
         <v>0.18</v>
       </c>
-      <c r="E61" s="15" t="s">
+      <c r="E61" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F61" s="13"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="15"/>
-      <c r="B62" s="15"/>
+      <c r="A62" s="16"/>
+      <c r="B62" s="16"/>
       <c r="C62" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="D62" s="16"/>
-      <c r="E62" s="15"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="16"/>
       <c r="F62" s="13"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="15"/>
-      <c r="B63" s="15"/>
+      <c r="A63" s="16"/>
+      <c r="B63" s="16"/>
       <c r="C63" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="D63" s="16"/>
-      <c r="E63" s="15"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="16"/>
       <c r="F63" s="13"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="15"/>
-      <c r="B64" s="15">
+      <c r="A64" s="16"/>
+      <c r="B64" s="16">
         <v>186</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="D64" s="16">
+      <c r="D64" s="17">
         <v>0.28999999999999998</v>
       </c>
-      <c r="E64" s="15" t="s">
+      <c r="E64" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F64" s="13"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="15"/>
-      <c r="B65" s="15"/>
+      <c r="A65" s="16"/>
+      <c r="B65" s="16"/>
       <c r="C65" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D65" s="16"/>
-      <c r="E65" s="15"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="16"/>
       <c r="F65" s="13"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="15"/>
-      <c r="B66" s="15"/>
+      <c r="A66" s="16"/>
+      <c r="B66" s="16"/>
       <c r="C66" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="D66" s="16"/>
-      <c r="E66" s="15"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="16"/>
       <c r="F66" s="13"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="15"/>
-      <c r="B67" s="15">
+      <c r="A67" s="16"/>
+      <c r="B67" s="16">
         <v>76</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D67" s="16">
+      <c r="D67" s="17">
         <v>0.222</v>
       </c>
-      <c r="E67" s="15" t="s">
+      <c r="E67" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F67" s="13"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="15"/>
-      <c r="B68" s="15"/>
+      <c r="A68" s="16"/>
+      <c r="B68" s="16"/>
       <c r="C68" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="D68" s="16"/>
-      <c r="E68" s="15"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="16"/>
       <c r="F68" s="13"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="15"/>
-      <c r="B69" s="15"/>
+      <c r="A69" s="16"/>
+      <c r="B69" s="16"/>
       <c r="C69" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="D69" s="16"/>
-      <c r="E69" s="15"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="16"/>
       <c r="F69" s="13"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="15"/>
-      <c r="B70" s="15">
+      <c r="A70" s="16"/>
+      <c r="B70" s="16">
         <v>202</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="D70" s="16">
+      <c r="D70" s="17">
         <v>0.378</v>
       </c>
-      <c r="E70" s="15" t="s">
+      <c r="E70" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F70" s="13"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="15"/>
-      <c r="B71" s="15"/>
+      <c r="A71" s="16"/>
+      <c r="B71" s="16"/>
       <c r="C71" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="D71" s="16"/>
-      <c r="E71" s="15"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="16"/>
       <c r="F71" s="13"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="15"/>
-      <c r="B72" s="15"/>
+      <c r="A72" s="16"/>
+      <c r="B72" s="16"/>
       <c r="C72" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="D72" s="16"/>
-      <c r="E72" s="15"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="16"/>
       <c r="F72" s="13"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="15"/>
-      <c r="B73" s="15">
+      <c r="A73" s="16"/>
+      <c r="B73" s="16">
         <v>37</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="D73" s="16">
+      <c r="D73" s="17">
         <v>0.26200000000000001</v>
       </c>
-      <c r="E73" s="15" t="s">
+      <c r="E73" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F73" s="13"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="15"/>
-      <c r="B74" s="15"/>
+      <c r="A74" s="16"/>
+      <c r="B74" s="16"/>
       <c r="C74" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="D74" s="16"/>
-      <c r="E74" s="15"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="16"/>
       <c r="F74" s="13"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="15"/>
-      <c r="B75" s="15"/>
+      <c r="A75" s="16"/>
+      <c r="B75" s="16"/>
       <c r="C75" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="D75" s="16"/>
-      <c r="E75" s="15"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="16"/>
       <c r="F75" s="13"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="15"/>
-      <c r="B76" s="15">
+      <c r="A76" s="16"/>
+      <c r="B76" s="16">
         <v>249</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D76" s="16">
+      <c r="D76" s="17">
         <v>0.34</v>
       </c>
-      <c r="E76" s="15" t="s">
+      <c r="E76" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F76" s="13"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="15"/>
-      <c r="B77" s="15"/>
+      <c r="A77" s="16"/>
+      <c r="B77" s="16"/>
       <c r="C77" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="D77" s="16"/>
-      <c r="E77" s="15"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="16"/>
       <c r="F77" s="13"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="15"/>
-      <c r="B78" s="15"/>
+      <c r="A78" s="16"/>
+      <c r="B78" s="16"/>
       <c r="C78" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="D78" s="16"/>
-      <c r="E78" s="15"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="16"/>
       <c r="F78" s="13"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="15"/>
-      <c r="B79" s="15">
+      <c r="A79" s="16"/>
+      <c r="B79" s="16">
         <v>242</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="D79" s="16">
+      <c r="D79" s="17">
         <v>0.433</v>
       </c>
-      <c r="E79" s="15" t="s">
+      <c r="E79" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F79" s="13"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="15"/>
-      <c r="B80" s="15"/>
+      <c r="A80" s="16"/>
+      <c r="B80" s="16"/>
       <c r="C80" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="D80" s="16"/>
-      <c r="E80" s="15"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="16"/>
       <c r="F80" s="13"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="15"/>
-      <c r="B81" s="15"/>
+      <c r="A81" s="16"/>
+      <c r="B81" s="16"/>
       <c r="C81" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="D81" s="16"/>
-      <c r="E81" s="15"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="16"/>
       <c r="F81" s="13"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="15"/>
-      <c r="B82" s="15">
+      <c r="A82" s="16"/>
+      <c r="B82" s="16">
         <v>23</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D82" s="16">
+      <c r="D82" s="17">
         <v>0.24399999999999999</v>
       </c>
-      <c r="E82" s="15" t="s">
+      <c r="E82" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F82" s="13"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="15"/>
-      <c r="B83" s="15"/>
+      <c r="A83" s="16"/>
+      <c r="B83" s="16"/>
       <c r="C83" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="D83" s="16"/>
-      <c r="E83" s="15"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="16"/>
       <c r="F83" s="13"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="15"/>
-      <c r="B84" s="15"/>
+      <c r="A84" s="16"/>
+      <c r="B84" s="16"/>
       <c r="C84" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="D84" s="16"/>
-      <c r="E84" s="15"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="16"/>
       <c r="F84" s="13"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="15"/>
-      <c r="B85" s="15">
+      <c r="A85" s="16"/>
+      <c r="B85" s="16">
         <v>230</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D85" s="16">
+      <c r="D85" s="17">
         <v>0.39700000000000002</v>
       </c>
-      <c r="E85" s="15" t="s">
+      <c r="E85" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F85" s="13"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="15"/>
-      <c r="B86" s="15"/>
+      <c r="A86" s="16"/>
+      <c r="B86" s="16"/>
       <c r="C86" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="D86" s="16"/>
-      <c r="E86" s="15"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="16"/>
       <c r="F86" s="13"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="15"/>
-      <c r="B87" s="15"/>
+      <c r="A87" s="16"/>
+      <c r="B87" s="16"/>
       <c r="C87" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="D87" s="16"/>
-      <c r="E87" s="15"/>
+      <c r="D87" s="17"/>
+      <c r="E87" s="16"/>
       <c r="F87" s="13"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="15"/>
-      <c r="B88" s="15">
+      <c r="A88" s="16"/>
+      <c r="B88" s="16">
         <v>206</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="D88" s="16">
+      <c r="D88" s="17">
         <v>0.41199999999999998</v>
       </c>
-      <c r="E88" s="15" t="s">
+      <c r="E88" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F88" s="13"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="15"/>
-      <c r="B89" s="15"/>
+      <c r="A89" s="16"/>
+      <c r="B89" s="16"/>
       <c r="C89" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D89" s="16"/>
-      <c r="E89" s="15"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="16"/>
       <c r="F89" s="13"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="15"/>
-      <c r="B90" s="15"/>
+      <c r="A90" s="16"/>
+      <c r="B90" s="16"/>
       <c r="C90" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="D90" s="16"/>
-      <c r="E90" s="15"/>
+      <c r="D90" s="17"/>
+      <c r="E90" s="16"/>
       <c r="F90" s="13"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="15"/>
-      <c r="B91" s="15">
+      <c r="A91" s="16"/>
+      <c r="B91" s="16">
         <v>380</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D91" s="16">
+      <c r="D91" s="17">
         <v>0.34300000000000003</v>
       </c>
-      <c r="E91" s="15" t="s">
+      <c r="E91" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F91" s="13"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" s="15"/>
-      <c r="B92" s="15"/>
+      <c r="A92" s="16"/>
+      <c r="B92" s="16"/>
       <c r="C92" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="D92" s="16"/>
-      <c r="E92" s="15"/>
+      <c r="D92" s="17"/>
+      <c r="E92" s="16"/>
       <c r="F92" s="13"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="15"/>
-      <c r="B93" s="15"/>
+      <c r="A93" s="16"/>
+      <c r="B93" s="16"/>
       <c r="C93" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="D93" s="16"/>
-      <c r="E93" s="15"/>
+      <c r="D93" s="17"/>
+      <c r="E93" s="16"/>
       <c r="F93" s="13"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="15"/>
-      <c r="B94" s="15">
+      <c r="A94" s="16"/>
+      <c r="B94" s="16">
         <v>125</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="D94" s="16">
+      <c r="D94" s="17">
         <v>0.245</v>
       </c>
-      <c r="E94" s="15" t="s">
+      <c r="E94" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F94" s="13"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="15"/>
-      <c r="B95" s="15"/>
+      <c r="A95" s="16"/>
+      <c r="B95" s="16"/>
       <c r="C95" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="D95" s="16"/>
-      <c r="E95" s="15"/>
+      <c r="D95" s="17"/>
+      <c r="E95" s="16"/>
       <c r="F95" s="13"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="15"/>
-      <c r="B96" s="15"/>
+      <c r="A96" s="16"/>
+      <c r="B96" s="16"/>
       <c r="C96" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="D96" s="16"/>
-      <c r="E96" s="15"/>
+      <c r="D96" s="17"/>
+      <c r="E96" s="16"/>
       <c r="F96" s="13"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="15"/>
-      <c r="B97" s="15">
+      <c r="A97" s="16"/>
+      <c r="B97" s="16">
         <v>33</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D97" s="16">
+      <c r="D97" s="17">
         <v>0.309</v>
       </c>
-      <c r="E97" s="15" t="s">
+      <c r="E97" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F97" s="13"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="15"/>
-      <c r="B98" s="15"/>
+      <c r="A98" s="16"/>
+      <c r="B98" s="16"/>
       <c r="C98" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="D98" s="16"/>
-      <c r="E98" s="15"/>
+      <c r="D98" s="17"/>
+      <c r="E98" s="16"/>
       <c r="F98" s="13"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="15"/>
-      <c r="B99" s="15"/>
+      <c r="A99" s="16"/>
+      <c r="B99" s="16"/>
       <c r="C99" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="D99" s="16"/>
-      <c r="E99" s="15"/>
+      <c r="D99" s="17"/>
+      <c r="E99" s="16"/>
       <c r="F99" s="13"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="15"/>
-      <c r="B100" s="15">
+      <c r="A100" s="16"/>
+      <c r="B100" s="16">
         <v>140</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D100" s="16">
+      <c r="D100" s="17">
         <v>0.20699999999999999</v>
       </c>
-      <c r="E100" s="15" t="s">
+      <c r="E100" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F100" s="13"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="15"/>
-      <c r="B101" s="15"/>
+      <c r="A101" s="16"/>
+      <c r="B101" s="16"/>
       <c r="C101" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="D101" s="16"/>
-      <c r="E101" s="15"/>
+      <c r="D101" s="17"/>
+      <c r="E101" s="16"/>
       <c r="F101" s="13"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="15"/>
-      <c r="B102" s="15"/>
+      <c r="A102" s="16"/>
+      <c r="B102" s="16"/>
       <c r="C102" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="D102" s="16"/>
-      <c r="E102" s="15"/>
+      <c r="D102" s="17"/>
+      <c r="E102" s="16"/>
       <c r="F102" s="13"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" s="15"/>
-      <c r="B103" s="15">
+      <c r="A103" s="16"/>
+      <c r="B103" s="16">
         <v>104</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D103" s="16">
+      <c r="D103" s="17">
         <v>0.49099999999999999</v>
       </c>
-      <c r="E103" s="15" t="s">
+      <c r="E103" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F103" s="13"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="15"/>
-      <c r="B104" s="15"/>
+      <c r="A104" s="16"/>
+      <c r="B104" s="16"/>
       <c r="C104" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="D104" s="16"/>
-      <c r="E104" s="15"/>
+      <c r="D104" s="17"/>
+      <c r="E104" s="16"/>
       <c r="F104" s="13"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" s="15"/>
-      <c r="B105" s="15"/>
+      <c r="A105" s="16"/>
+      <c r="B105" s="16"/>
       <c r="C105" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="D105" s="16"/>
-      <c r="E105" s="15"/>
+      <c r="D105" s="17"/>
+      <c r="E105" s="16"/>
       <c r="F105" s="13"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="15"/>
-      <c r="B106" s="15">
+      <c r="A106" s="16"/>
+      <c r="B106" s="16">
         <v>161</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="D106" s="16">
+      <c r="D106" s="17">
         <v>0.29299999999999998</v>
       </c>
-      <c r="E106" s="15" t="s">
+      <c r="E106" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F106" s="13"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" s="15"/>
-      <c r="B107" s="15"/>
+      <c r="A107" s="16"/>
+      <c r="B107" s="16"/>
       <c r="C107" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D107" s="16"/>
-      <c r="E107" s="15"/>
+      <c r="D107" s="17"/>
+      <c r="E107" s="16"/>
       <c r="F107" s="13"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" s="15"/>
-      <c r="B108" s="15"/>
+      <c r="A108" s="16"/>
+      <c r="B108" s="16"/>
       <c r="C108" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="D108" s="16"/>
-      <c r="E108" s="15"/>
+      <c r="D108" s="17"/>
+      <c r="E108" s="16"/>
       <c r="F108" s="13"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" s="15"/>
-      <c r="B109" s="15">
+      <c r="A109" s="16"/>
+      <c r="B109" s="16">
         <v>337</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="D109" s="16">
+      <c r="D109" s="17">
         <v>0.39100000000000001</v>
       </c>
-      <c r="E109" s="15" t="s">
+      <c r="E109" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F109" s="13"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" s="15"/>
-      <c r="B110" s="15"/>
+      <c r="A110" s="16"/>
+      <c r="B110" s="16"/>
       <c r="C110" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="D110" s="16"/>
-      <c r="E110" s="15"/>
+      <c r="D110" s="17"/>
+      <c r="E110" s="16"/>
       <c r="F110" s="13"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" s="15"/>
-      <c r="B111" s="15"/>
+      <c r="A111" s="16"/>
+      <c r="B111" s="16"/>
       <c r="C111" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="D111" s="16"/>
-      <c r="E111" s="15"/>
+      <c r="D111" s="17"/>
+      <c r="E111" s="16"/>
       <c r="F111" s="13"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112" s="15"/>
-      <c r="B112" s="15">
+      <c r="A112" s="16"/>
+      <c r="B112" s="16">
         <v>373</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D112" s="16">
+      <c r="D112" s="17">
         <v>0.26800000000000002</v>
       </c>
-      <c r="E112" s="15" t="s">
+      <c r="E112" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F112" s="13"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A113" s="15"/>
-      <c r="B113" s="15"/>
+      <c r="A113" s="16"/>
+      <c r="B113" s="16"/>
       <c r="C113" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="D113" s="16"/>
-      <c r="E113" s="15"/>
+      <c r="D113" s="17"/>
+      <c r="E113" s="16"/>
       <c r="F113" s="13"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A114" s="15"/>
-      <c r="B114" s="15"/>
+      <c r="A114" s="16"/>
+      <c r="B114" s="16"/>
       <c r="C114" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="D114" s="16"/>
-      <c r="E114" s="15"/>
+      <c r="D114" s="17"/>
+      <c r="E114" s="16"/>
       <c r="F114" s="13"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A115" s="15"/>
-      <c r="B115" s="15">
+      <c r="A115" s="16"/>
+      <c r="B115" s="16">
         <v>121</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="D115" s="16">
+      <c r="D115" s="17">
         <v>0.371</v>
       </c>
-      <c r="E115" s="15" t="s">
+      <c r="E115" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F115" s="13"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A116" s="15"/>
-      <c r="B116" s="15"/>
+      <c r="A116" s="16"/>
+      <c r="B116" s="16"/>
       <c r="C116" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="D116" s="16"/>
-      <c r="E116" s="15"/>
+      <c r="D116" s="17"/>
+      <c r="E116" s="16"/>
       <c r="F116" s="13"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A117" s="15"/>
-      <c r="B117" s="15"/>
+      <c r="A117" s="16"/>
+      <c r="B117" s="16"/>
       <c r="C117" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="D117" s="16"/>
-      <c r="E117" s="15"/>
+      <c r="D117" s="17"/>
+      <c r="E117" s="16"/>
       <c r="F117" s="13"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A118" s="15"/>
-      <c r="B118" s="15">
+      <c r="A118" s="16"/>
+      <c r="B118" s="16">
         <v>266</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="D118" s="16">
+      <c r="D118" s="17">
         <v>0.52500000000000002</v>
       </c>
-      <c r="E118" s="15" t="s">
+      <c r="E118" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F118" s="13"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A119" s="15"/>
-      <c r="B119" s="15"/>
+      <c r="A119" s="16"/>
+      <c r="B119" s="16"/>
       <c r="C119" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D119" s="16"/>
-      <c r="E119" s="15"/>
+      <c r="D119" s="17"/>
+      <c r="E119" s="16"/>
       <c r="F119" s="13"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A120" s="15"/>
-      <c r="B120" s="15"/>
+      <c r="A120" s="16"/>
+      <c r="B120" s="16"/>
       <c r="C120" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="D120" s="16"/>
-      <c r="E120" s="15"/>
+      <c r="D120" s="17"/>
+      <c r="E120" s="16"/>
       <c r="F120" s="13"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A121" s="15"/>
-      <c r="B121" s="15">
+      <c r="A121" s="16"/>
+      <c r="B121" s="16">
         <v>171</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="D121" s="16">
+      <c r="D121" s="17">
         <v>0.434</v>
       </c>
-      <c r="E121" s="15" t="s">
+      <c r="E121" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F121" s="13"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A122" s="15"/>
-      <c r="B122" s="15"/>
+      <c r="A122" s="16"/>
+      <c r="B122" s="16"/>
       <c r="C122" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="D122" s="16"/>
-      <c r="E122" s="15"/>
+      <c r="D122" s="17"/>
+      <c r="E122" s="16"/>
       <c r="F122" s="13"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A123" s="15"/>
-      <c r="B123" s="15"/>
+      <c r="A123" s="16"/>
+      <c r="B123" s="16"/>
       <c r="C123" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="D123" s="16"/>
-      <c r="E123" s="15"/>
+      <c r="D123" s="17"/>
+      <c r="E123" s="16"/>
       <c r="F123" s="13"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A124" s="15"/>
-      <c r="B124" s="15">
+      <c r="A124" s="16"/>
+      <c r="B124" s="16">
         <v>78</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="D124" s="16">
+      <c r="D124" s="17">
         <v>0.33300000000000002</v>
       </c>
-      <c r="E124" s="15" t="s">
+      <c r="E124" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F124" s="13"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A125" s="15"/>
-      <c r="B125" s="15"/>
+      <c r="A125" s="16"/>
+      <c r="B125" s="16"/>
       <c r="C125" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="D125" s="16"/>
-      <c r="E125" s="15"/>
+      <c r="D125" s="17"/>
+      <c r="E125" s="16"/>
       <c r="F125" s="13"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A126" s="15"/>
-      <c r="B126" s="15"/>
+      <c r="A126" s="16"/>
+      <c r="B126" s="16"/>
       <c r="C126" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="D126" s="16"/>
-      <c r="E126" s="15"/>
+      <c r="D126" s="17"/>
+      <c r="E126" s="16"/>
       <c r="F126" s="13"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A127" s="15"/>
-      <c r="B127" s="15">
+      <c r="A127" s="16"/>
+      <c r="B127" s="16">
         <v>8</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="D127" s="16">
+      <c r="D127" s="17">
         <v>0.13700000000000001</v>
       </c>
-      <c r="E127" s="15" t="s">
+      <c r="E127" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F127" s="13"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A128" s="15"/>
-      <c r="B128" s="15"/>
+      <c r="A128" s="16"/>
+      <c r="B128" s="16"/>
       <c r="C128" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="D128" s="16"/>
-      <c r="E128" s="15"/>
+      <c r="D128" s="17"/>
+      <c r="E128" s="16"/>
       <c r="F128" s="13"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A129" s="15"/>
-      <c r="B129" s="15"/>
+      <c r="A129" s="16"/>
+      <c r="B129" s="16"/>
       <c r="C129" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="D129" s="16"/>
-      <c r="E129" s="15"/>
+      <c r="D129" s="17"/>
+      <c r="E129" s="16"/>
       <c r="F129" s="13"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A130" s="15"/>
-      <c r="B130" s="15">
+      <c r="A130" s="16"/>
+      <c r="B130" s="16">
         <v>155</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D130" s="16">
+      <c r="D130" s="17">
         <v>0.23899999999999999</v>
       </c>
-      <c r="E130" s="15" t="s">
+      <c r="E130" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F130" s="13"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A131" s="15"/>
-      <c r="B131" s="15"/>
+      <c r="A131" s="16"/>
+      <c r="B131" s="16"/>
       <c r="C131" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="D131" s="16"/>
-      <c r="E131" s="15"/>
+      <c r="D131" s="17"/>
+      <c r="E131" s="16"/>
       <c r="F131" s="13"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A132" s="15"/>
-      <c r="B132" s="15"/>
+      <c r="A132" s="16"/>
+      <c r="B132" s="16"/>
       <c r="C132" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="D132" s="16"/>
-      <c r="E132" s="15"/>
+      <c r="D132" s="17"/>
+      <c r="E132" s="16"/>
       <c r="F132" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="224">
+    <mergeCell ref="A127:A129"/>
+    <mergeCell ref="B127:B129"/>
+    <mergeCell ref="D127:D129"/>
+    <mergeCell ref="E127:E129"/>
+    <mergeCell ref="F127:F129"/>
+    <mergeCell ref="A130:A132"/>
+    <mergeCell ref="B130:B132"/>
+    <mergeCell ref="D130:D132"/>
+    <mergeCell ref="E130:E132"/>
+    <mergeCell ref="F130:F132"/>
+    <mergeCell ref="A121:A123"/>
+    <mergeCell ref="B121:B123"/>
+    <mergeCell ref="D121:D123"/>
+    <mergeCell ref="E121:E123"/>
+    <mergeCell ref="F121:F123"/>
+    <mergeCell ref="A124:A126"/>
+    <mergeCell ref="B124:B126"/>
+    <mergeCell ref="D124:D126"/>
+    <mergeCell ref="E124:E126"/>
+    <mergeCell ref="F124:F126"/>
+    <mergeCell ref="A115:A117"/>
+    <mergeCell ref="B115:B117"/>
+    <mergeCell ref="D115:D117"/>
+    <mergeCell ref="E115:E117"/>
+    <mergeCell ref="F115:F117"/>
+    <mergeCell ref="A118:A120"/>
+    <mergeCell ref="B118:B120"/>
+    <mergeCell ref="D118:D120"/>
+    <mergeCell ref="E118:E120"/>
+    <mergeCell ref="F118:F120"/>
+    <mergeCell ref="A109:A111"/>
+    <mergeCell ref="B109:B111"/>
+    <mergeCell ref="D109:D111"/>
+    <mergeCell ref="E109:E111"/>
+    <mergeCell ref="F109:F111"/>
+    <mergeCell ref="A112:A114"/>
+    <mergeCell ref="B112:B114"/>
+    <mergeCell ref="D112:D114"/>
+    <mergeCell ref="E112:E114"/>
+    <mergeCell ref="F112:F114"/>
+    <mergeCell ref="A103:A105"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="D103:D105"/>
+    <mergeCell ref="E103:E105"/>
+    <mergeCell ref="F103:F105"/>
+    <mergeCell ref="A106:A108"/>
+    <mergeCell ref="B106:B108"/>
+    <mergeCell ref="D106:D108"/>
+    <mergeCell ref="E106:E108"/>
+    <mergeCell ref="F106:F108"/>
+    <mergeCell ref="A97:A99"/>
+    <mergeCell ref="B97:B99"/>
+    <mergeCell ref="D97:D99"/>
+    <mergeCell ref="E97:E99"/>
+    <mergeCell ref="F97:F99"/>
+    <mergeCell ref="A100:A102"/>
+    <mergeCell ref="B100:B102"/>
+    <mergeCell ref="D100:D102"/>
+    <mergeCell ref="E100:E102"/>
+    <mergeCell ref="F100:F102"/>
+    <mergeCell ref="A91:A93"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="D91:D93"/>
+    <mergeCell ref="E91:E93"/>
+    <mergeCell ref="F91:F93"/>
+    <mergeCell ref="A94:A96"/>
+    <mergeCell ref="B94:B96"/>
+    <mergeCell ref="D94:D96"/>
+    <mergeCell ref="E94:E96"/>
+    <mergeCell ref="F94:F96"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="D85:D87"/>
+    <mergeCell ref="E85:E87"/>
+    <mergeCell ref="F85:F87"/>
+    <mergeCell ref="A88:A90"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="D88:D90"/>
+    <mergeCell ref="E88:E90"/>
+    <mergeCell ref="F88:F90"/>
+    <mergeCell ref="A79:A81"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="D79:D81"/>
+    <mergeCell ref="E79:E81"/>
+    <mergeCell ref="F79:F81"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="D82:D84"/>
+    <mergeCell ref="E82:E84"/>
+    <mergeCell ref="F82:F84"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="E73:E75"/>
+    <mergeCell ref="F73:F75"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="D76:D78"/>
+    <mergeCell ref="E76:E78"/>
+    <mergeCell ref="F76:F78"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="E67:E69"/>
+    <mergeCell ref="F67:F69"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="E70:E72"/>
+    <mergeCell ref="F70:F72"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="E61:E63"/>
+    <mergeCell ref="F61:F63"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="D64:D66"/>
+    <mergeCell ref="E64:E66"/>
+    <mergeCell ref="F64:F66"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="E55:E57"/>
+    <mergeCell ref="F55:F57"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="E58:E60"/>
+    <mergeCell ref="F58:F60"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="E49:E51"/>
+    <mergeCell ref="F49:F51"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="F52:F54"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="E43:E45"/>
+    <mergeCell ref="F43:F45"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="E46:E48"/>
+    <mergeCell ref="F46:F48"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="F31:F33"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="F34:F36"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:F13"/>
     <mergeCell ref="F3:F5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
@@ -32026,216 +32257,6 @@
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="E3:E5"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="F28:F30"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="F31:F33"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="F34:F36"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="F37:F39"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="E43:E45"/>
-    <mergeCell ref="F43:F45"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="E46:E48"/>
-    <mergeCell ref="F46:F48"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="E49:E51"/>
-    <mergeCell ref="F49:F51"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="E52:E54"/>
-    <mergeCell ref="F52:F54"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="E55:E57"/>
-    <mergeCell ref="F55:F57"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="D58:D60"/>
-    <mergeCell ref="E58:E60"/>
-    <mergeCell ref="F58:F60"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="E61:E63"/>
-    <mergeCell ref="F61:F63"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="D64:D66"/>
-    <mergeCell ref="E64:E66"/>
-    <mergeCell ref="F64:F66"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="E67:E69"/>
-    <mergeCell ref="F67:F69"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="D70:D72"/>
-    <mergeCell ref="E70:E72"/>
-    <mergeCell ref="F70:F72"/>
-    <mergeCell ref="A73:A75"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="E73:E75"/>
-    <mergeCell ref="F73:F75"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="D76:D78"/>
-    <mergeCell ref="E76:E78"/>
-    <mergeCell ref="F76:F78"/>
-    <mergeCell ref="A79:A81"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="D79:D81"/>
-    <mergeCell ref="E79:E81"/>
-    <mergeCell ref="F79:F81"/>
-    <mergeCell ref="A82:A84"/>
-    <mergeCell ref="B82:B84"/>
-    <mergeCell ref="D82:D84"/>
-    <mergeCell ref="E82:E84"/>
-    <mergeCell ref="F82:F84"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="B85:B87"/>
-    <mergeCell ref="D85:D87"/>
-    <mergeCell ref="E85:E87"/>
-    <mergeCell ref="F85:F87"/>
-    <mergeCell ref="A88:A90"/>
-    <mergeCell ref="B88:B90"/>
-    <mergeCell ref="D88:D90"/>
-    <mergeCell ref="E88:E90"/>
-    <mergeCell ref="F88:F90"/>
-    <mergeCell ref="A91:A93"/>
-    <mergeCell ref="B91:B93"/>
-    <mergeCell ref="D91:D93"/>
-    <mergeCell ref="E91:E93"/>
-    <mergeCell ref="F91:F93"/>
-    <mergeCell ref="A94:A96"/>
-    <mergeCell ref="B94:B96"/>
-    <mergeCell ref="D94:D96"/>
-    <mergeCell ref="E94:E96"/>
-    <mergeCell ref="F94:F96"/>
-    <mergeCell ref="A97:A99"/>
-    <mergeCell ref="B97:B99"/>
-    <mergeCell ref="D97:D99"/>
-    <mergeCell ref="E97:E99"/>
-    <mergeCell ref="F97:F99"/>
-    <mergeCell ref="A100:A102"/>
-    <mergeCell ref="B100:B102"/>
-    <mergeCell ref="D100:D102"/>
-    <mergeCell ref="E100:E102"/>
-    <mergeCell ref="F100:F102"/>
-    <mergeCell ref="A103:A105"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="D103:D105"/>
-    <mergeCell ref="E103:E105"/>
-    <mergeCell ref="F103:F105"/>
-    <mergeCell ref="A106:A108"/>
-    <mergeCell ref="B106:B108"/>
-    <mergeCell ref="D106:D108"/>
-    <mergeCell ref="E106:E108"/>
-    <mergeCell ref="F106:F108"/>
-    <mergeCell ref="A109:A111"/>
-    <mergeCell ref="B109:B111"/>
-    <mergeCell ref="D109:D111"/>
-    <mergeCell ref="E109:E111"/>
-    <mergeCell ref="F109:F111"/>
-    <mergeCell ref="A112:A114"/>
-    <mergeCell ref="B112:B114"/>
-    <mergeCell ref="D112:D114"/>
-    <mergeCell ref="E112:E114"/>
-    <mergeCell ref="F112:F114"/>
-    <mergeCell ref="A115:A117"/>
-    <mergeCell ref="B115:B117"/>
-    <mergeCell ref="D115:D117"/>
-    <mergeCell ref="E115:E117"/>
-    <mergeCell ref="F115:F117"/>
-    <mergeCell ref="A118:A120"/>
-    <mergeCell ref="B118:B120"/>
-    <mergeCell ref="D118:D120"/>
-    <mergeCell ref="E118:E120"/>
-    <mergeCell ref="F118:F120"/>
-    <mergeCell ref="A121:A123"/>
-    <mergeCell ref="B121:B123"/>
-    <mergeCell ref="D121:D123"/>
-    <mergeCell ref="E121:E123"/>
-    <mergeCell ref="F121:F123"/>
-    <mergeCell ref="A124:A126"/>
-    <mergeCell ref="B124:B126"/>
-    <mergeCell ref="D124:D126"/>
-    <mergeCell ref="E124:E126"/>
-    <mergeCell ref="F124:F126"/>
-    <mergeCell ref="A127:A129"/>
-    <mergeCell ref="B127:B129"/>
-    <mergeCell ref="D127:D129"/>
-    <mergeCell ref="E127:E129"/>
-    <mergeCell ref="F127:F129"/>
-    <mergeCell ref="A130:A132"/>
-    <mergeCell ref="B130:B132"/>
-    <mergeCell ref="D130:D132"/>
-    <mergeCell ref="E130:E132"/>
-    <mergeCell ref="F130:F132"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1"/>
@@ -32307,7 +32328,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
@@ -32317,16 +32338,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
     </row>
@@ -32334,10 +32355,10 @@
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
@@ -33097,100 +33118,6 @@
     </row>
   </sheetData>
   <mergeCells count="109">
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="F28:F30"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="F31:F33"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="F34:F36"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="F37:F39"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="E43:E45"/>
-    <mergeCell ref="F43:F45"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="E46:E48"/>
-    <mergeCell ref="F46:F48"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="E49:E51"/>
-    <mergeCell ref="F49:F51"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="E52:E54"/>
-    <mergeCell ref="F52:F54"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="E55:E57"/>
-    <mergeCell ref="F55:F57"/>
     <mergeCell ref="A64:A66"/>
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="D64:D66"/>
@@ -33206,6 +33133,100 @@
     <mergeCell ref="D61:D63"/>
     <mergeCell ref="E61:E63"/>
     <mergeCell ref="F61:F63"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="F52:F54"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="E55:E57"/>
+    <mergeCell ref="F55:F57"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="E46:E48"/>
+    <mergeCell ref="F46:F48"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="E49:E51"/>
+    <mergeCell ref="F49:F51"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="E43:E45"/>
+    <mergeCell ref="F43:F45"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="F34:F36"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="F31:F33"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1"/>
@@ -33258,16 +33279,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
     </row>
@@ -33275,10 +33296,10 @@
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
@@ -34326,140 +34347,6 @@
     </row>
   </sheetData>
   <mergeCells count="149">
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="F28:F30"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="F31:F33"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="F34:F36"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="F37:F39"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="E43:E45"/>
-    <mergeCell ref="F43:F45"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="E46:E48"/>
-    <mergeCell ref="F46:F48"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="E49:E51"/>
-    <mergeCell ref="F49:F51"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="E52:E54"/>
-    <mergeCell ref="F52:F54"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="E55:E57"/>
-    <mergeCell ref="F55:F57"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="D58:D60"/>
-    <mergeCell ref="E58:E60"/>
-    <mergeCell ref="F58:F60"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="E61:E63"/>
-    <mergeCell ref="F61:F63"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="D64:D66"/>
-    <mergeCell ref="E64:E66"/>
-    <mergeCell ref="F64:F66"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="E67:E69"/>
-    <mergeCell ref="F67:F69"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="D70:D72"/>
-    <mergeCell ref="E70:E72"/>
-    <mergeCell ref="F70:F72"/>
-    <mergeCell ref="A73:A75"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="E73:E75"/>
-    <mergeCell ref="F73:F75"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="D76:D78"/>
-    <mergeCell ref="E76:E78"/>
-    <mergeCell ref="F76:F78"/>
-    <mergeCell ref="A79:A81"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="D79:D81"/>
-    <mergeCell ref="E79:E81"/>
-    <mergeCell ref="F79:F81"/>
     <mergeCell ref="A88:A90"/>
     <mergeCell ref="B88:B90"/>
     <mergeCell ref="D88:D90"/>
@@ -34475,6 +34362,140 @@
     <mergeCell ref="D85:D87"/>
     <mergeCell ref="E85:E87"/>
     <mergeCell ref="F85:F87"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="D76:D78"/>
+    <mergeCell ref="E76:E78"/>
+    <mergeCell ref="F76:F78"/>
+    <mergeCell ref="A79:A81"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="D79:D81"/>
+    <mergeCell ref="E79:E81"/>
+    <mergeCell ref="F79:F81"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="E70:E72"/>
+    <mergeCell ref="F70:F72"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="E73:E75"/>
+    <mergeCell ref="F73:F75"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="D64:D66"/>
+    <mergeCell ref="E64:E66"/>
+    <mergeCell ref="F64:F66"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="E67:E69"/>
+    <mergeCell ref="F67:F69"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="E58:E60"/>
+    <mergeCell ref="F58:F60"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="E61:E63"/>
+    <mergeCell ref="F61:F63"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="F52:F54"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="E55:E57"/>
+    <mergeCell ref="F55:F57"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="E46:E48"/>
+    <mergeCell ref="F46:F48"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="E49:E51"/>
+    <mergeCell ref="F49:F51"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="E43:E45"/>
+    <mergeCell ref="F43:F45"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="F34:F36"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="F31:F33"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1"/>
@@ -34543,16 +34564,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
     </row>
@@ -34560,10 +34581,10 @@
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
@@ -34989,6 +35010,62 @@
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="F36:F38"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
@@ -34997,62 +35074,6 @@
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="D4:D6"/>
     <mergeCell ref="E4:E6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="F33:F35"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1"/>
@@ -35090,390 +35111,436 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="15">
+      <c r="A1" s="16">
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="16">
+      <c r="C1" s="17">
         <v>0.255</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="16" t="s">
         <v>19</v>
       </c>
       <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
+      <c r="A2" s="16"/>
       <c r="B2" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="15"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="16"/>
       <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="15"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="15"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="16"/>
       <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16">
         <v>139</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="17">
         <v>0.26300000000000001</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="15"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="16"/>
       <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16">
         <v>146</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="17">
         <v>0.158</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="15"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="16"/>
       <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="15"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="16"/>
       <c r="F8" s="13"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16">
         <v>217</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="17">
         <v>0.42399999999999999</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="15"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="16"/>
       <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="5" t="s">
         <v>603</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="15"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="16"/>
       <c r="F11" s="13"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16">
         <v>206</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="17">
         <v>0.41199999999999998</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="15"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="16"/>
       <c r="F13" s="13"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
       <c r="C14" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="15"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="16"/>
       <c r="F14" s="13"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16">
         <v>4</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="17">
         <v>0.19500000000000001</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
       <c r="C16" s="5" t="s">
         <v>604</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="15"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="16"/>
       <c r="F16" s="13"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
       <c r="C17" s="5" t="s">
         <v>605</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="15"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="16"/>
       <c r="F17" s="13"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16">
         <v>141</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="17">
         <v>0.36399999999999999</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F18" s="13"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
       <c r="C19" s="5" t="s">
         <v>606</v>
       </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="15"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="16"/>
       <c r="F19" s="13"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
       <c r="C20" s="5" t="s">
         <v>607</v>
       </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="15"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="16"/>
       <c r="F20" s="13"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16">
         <v>104</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="17">
         <v>0.49099999999999999</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F21" s="13"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
       <c r="C22" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="15"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="16"/>
       <c r="F22" s="13"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
       <c r="C23" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="15"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="16"/>
       <c r="F23" s="13"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16">
         <v>13</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24" s="17">
         <v>0.41299999999999998</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E24" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F24" s="13"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
       <c r="C25" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="15"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="16"/>
       <c r="F25" s="13"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
       <c r="C26" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="D26" s="16"/>
-      <c r="E26" s="15"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="16"/>
       <c r="F26" s="13"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16">
         <v>297</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D27" s="17">
         <v>0.29299999999999998</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="E27" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F27" s="13"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
       <c r="C28" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="D28" s="16"/>
-      <c r="E28" s="15"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="16"/>
       <c r="F28" s="13"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
       <c r="C29" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="D29" s="16"/>
-      <c r="E29" s="15"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="16"/>
       <c r="F29" s="13"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15">
+      <c r="A30" s="16"/>
+      <c r="B30" s="16">
         <v>284</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D30" s="17">
         <v>0.34499999999999997</v>
       </c>
-      <c r="E30" s="15" t="s">
+      <c r="E30" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F30" s="13"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
       <c r="C31" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D31" s="16"/>
-      <c r="E31" s="15"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="16"/>
       <c r="F31" s="13"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
       <c r="C32" s="5" t="s">
         <v>608</v>
       </c>
-      <c r="D32" s="16"/>
-      <c r="E32" s="15"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="16"/>
       <c r="F32" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F6:F8"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="D1:D3"/>
@@ -35482,52 +35549,6 @@
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F27:F29"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1"/>
